--- a/scoring-template.xlsx
+++ b/scoring-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hollow-knight-js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\hollow-knight\hollow-knight-js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B51415B-487A-4EAD-8C09-503CCE1A97B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09128E0-3B15-4B3A-BF8C-E8EB81D077F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Pause &amp; Player Bar" sheetId="11" r:id="rId7"/>
     <sheet name="Credit" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,10 +86,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{4514AF01-7E8F-4C1D-AC88-7E521B8F31F8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{96DC894D-359C-4A93-B473-EFC593717AA9}">
@@ -123,12 +130,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{897B24F7-839A-412D-8359-372DB9751EB0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{A34E64BE-BEF1-42A1-9FCB-475E2BE1F6BA}">
@@ -468,10 +485,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{37940635-88FF-4125-B9A4-34C7F9E3EBD2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{A6913EE4-0BAE-4289-8345-ED31A52DB279}">
@@ -501,12 +528,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{074E87B6-7FAC-42E0-8A7C-A8F306C30F53}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CD81AFFD-1466-4BA3-97E2-1E689650982D}">
@@ -740,10 +777,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{AA75CCD3-8C2A-43CB-AC15-18B07EA9966D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{3B1D7A88-477C-40CC-8591-2E350AC7880B}">
@@ -773,12 +820,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{BD4AE21C-5745-4F51-9D0F-E7D68617414D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CF26B1E0-EB13-4E45-B965-93D0D4361965}">
@@ -831,7 +888,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{7A3680E8-3C55-4188-9556-E1B7038DF4E2}">
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{7CE72614-B1D7-4D3F-9FC8-07157F924873}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- dikatakan benar jika, terdapat key listener dan validasi dalam key tsb (includes) kepada salah satu cheatsheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{8086D7F5-1104-4E2C-AA88-76B7BAEA94A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- dikatakan benar jika, terdapat LIMA cheatcode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{D0A5AA63-F6C2-4F33-ADEA-32B8630C0857}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- display cheat activated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{7A3680E8-3C55-4188-9556-E1B7038DF4E2}">
       <text>
         <r>
           <rPr>
@@ -856,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{890C6F15-D617-42EE-BB28-634E1A7D13E7}">
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{890C6F15-D617-42EE-BB28-634E1A7D13E7}">
       <text>
         <r>
           <rPr>
@@ -880,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{22FD0007-4905-4138-803D-09FF05C3DC2C}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{22FD0007-4905-4138-803D-09FF05C3DC2C}">
       <text>
         <r>
           <rPr>
@@ -904,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{499B879F-C0C7-482C-8811-963095699A24}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{499B879F-C0C7-482C-8811-963095699A24}">
       <text>
         <r>
           <rPr>
@@ -928,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{27077109-46B1-4AD7-BC01-97FB4D77E77A}">
+    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{27077109-46B1-4AD7-BC01-97FB4D77E77A}">
       <text>
         <r>
           <rPr>
@@ -952,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{CB447C4A-B953-4E2E-BCEA-8AA40840F443}">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{CB447C4A-B953-4E2E-BCEA-8AA40840F443}">
       <text>
         <r>
           <rPr>
@@ -976,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0" xr:uid="{6697B746-AC37-4597-B053-CBF44CB54DA4}">
+    <comment ref="B30" authorId="1" shapeId="0" xr:uid="{6697B746-AC37-4597-B053-CBF44CB54DA4}">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{8752269B-2D5B-46CC-94D9-D33CAE5F1758}">
+    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{8752269B-2D5B-46CC-94D9-D33CAE5F1758}">
       <text>
         <r>
           <rPr>
@@ -1038,10 +1167,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{64177324-8F3A-42B1-BCAC-3084037D53C9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{35EA2246-2D77-43CB-882A-B37DC21E4549}">
@@ -1071,12 +1210,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{F18F38FC-89B0-451C-89C0-F586AE97AD82}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{8083EBD2-879B-4795-9CE9-8136957CB1F8}">
@@ -1438,6 +1587,30 @@
           </rPr>
           <t xml:space="preserve">
 - dapat hit enemy </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="1" shapeId="0" xr:uid="{E2AD0A8B-8CA9-4FDD-BD43-ED994416BF82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- decrement saat menggunakan blast</t>
         </r>
       </text>
     </comment>
@@ -1455,10 +1628,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3A99FF84-AC4D-43E8-877A-6BDD1EC7B3FB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{298C2853-BC95-4A47-9C01-8CD3CC4F9D76}">
@@ -1488,12 +1671,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{C324183A-839C-469E-9697-60E49EA3C890}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5C2E5588-416D-4AB4-BFA8-B29CC2AD6F7E}">
@@ -1896,10 +2089,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{371C81CD-2583-4077-AE9D-543E242844C3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{12A22070-FB96-49C8-B622-A6267A98BC24}">
@@ -1929,12 +2132,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{430EFBEF-0AE2-4995-9727-BE06994799AB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B19" authorId="1" shapeId="0" xr:uid="{83438199-738D-4F30-9EE9-4CDF9293C6EB}">
@@ -2006,6 +2219,79 @@
           </rPr>
           <t xml:space="preserve">
 - collide dengan enemy maka health berkurng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{1FFDCC7C-3D24-47B4-AEE7-0B4422AC58F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- render symbol sesuai dengan jumlah hp (mis. 3 hp maka gambar symbolnya 3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{3C713582-D197-407C-9A7F-C5928A5C5B58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- jika lebih besar dari 0, maka show skill symbol. Sebaliknya jika 0, maka hide skill symbol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="1" shapeId="0" xr:uid="{72CD3214-A087-405F-9C05-9F4F05224C86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- hit enemy 3x dapet blast power
+</t>
         </r>
       </text>
     </comment>
@@ -2023,10 +2309,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{EBB29502-A7AA-4340-BA91-A222C4FF868B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{6B82EE39-6505-478D-AC44-2BBF035AB592}">
@@ -2056,12 +2352,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{6062114B-32F6-47FD-BB20-297F4E9135E1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{FCD75129-F05F-415C-A7F1-12D1062F33DF}">
@@ -2117,7 +2423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="171">
   <si>
     <t>Grade</t>
   </si>
@@ -2605,20 +2911,51 @@
     <t>Look At Player</t>
   </si>
   <si>
-    <t>*Note : Salah 1 bagi 2</t>
+    <t>Cheat</t>
+  </si>
+  <si>
+    <t>Triggering Cheat</t>
+  </si>
+  <si>
+    <t>Make 5 Cheats</t>
+  </si>
+  <si>
+    <t>Display Cheat Activated</t>
+  </si>
+  <si>
+    <t>Skill Symbol</t>
+  </si>
+  <si>
+    <t>Skill Increment Logic</t>
+  </si>
+  <si>
+    <t>Blast Power</t>
+  </si>
+  <si>
+    <t>Show Or Hide</t>
+  </si>
+  <si>
+    <t>*Note : Salah 1 Bagi 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2863,193 +3200,165 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFCCECFF"/>
@@ -3059,7 +3368,6 @@
       <color rgb="FFFC68AE"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF6666FF"/>
-      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3469,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01786E0A-BF75-45AD-BAFB-97FFFB484BCE}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,26 +3795,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -3518,34 +3826,34 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="31" t="s">
         <v>146</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -3553,22 +3861,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="14">
         <v>25</v>
       </c>
@@ -3613,22 +3921,22 @@
         <v>15</v>
       </c>
       <c r="G8" s="15">
-        <f>HLOOKUP(B8,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B8,'Game Environment'!D$8:S$36,29,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>10</v>
       </c>
       <c r="H8" s="15">
-        <f>HLOOKUP(B8,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
+        <f>HLOOKUP(B8,Character!D$8:S$52,45,FALSE) /Character!$C$6 *$H$7</f>
         <v>20</v>
       </c>
       <c r="I8" s="15">
         <f>HLOOKUP(B8,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>15</v>
       </c>
-      <c r="J8" s="48">
-        <f>HLOOKUP(B8,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+      <c r="J8" s="15">
+        <f>HLOOKUP(B8,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>10</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="15">
         <f>HLOOKUP(B8,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>5</v>
       </c>
@@ -3638,7 +3946,7 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="11">
         <f t="shared" ref="C9:C23" si="0">IF(ISBLANK(L9), ROUNDUP(SUM(E9:K9), 0), 0)</f>
         <v>0</v>
       </c>
@@ -3654,23 +3962,23 @@
         <f>HLOOKUP(B9,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G9" s="48">
-        <f>HLOOKUP(B9,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="48">
-        <f>HLOOKUP(B9,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="48">
+      <c r="G9" s="15">
+        <f>HLOOKUP(B9,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>HLOOKUP(B9,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
         <f>HLOOKUP(B9,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J9" s="48">
-        <f>HLOOKUP(B9,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="48">
+      <c r="J9" s="15">
+        <f>HLOOKUP(B9,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
         <f>HLOOKUP(B9,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3680,7 +3988,7 @@
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3696,23 +4004,23 @@
         <f>HLOOKUP(B10,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G10" s="48">
-        <f>HLOOKUP(B10,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="48">
-        <f>HLOOKUP(B10,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="48">
+      <c r="G10" s="15">
+        <f>HLOOKUP(B10,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f>HLOOKUP(B10,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
         <f>HLOOKUP(B10,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="48">
-        <f>HLOOKUP(B10,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="48">
+      <c r="J10" s="15">
+        <f>HLOOKUP(B10,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <f>HLOOKUP(B10,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3722,7 +4030,7 @@
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3738,23 +4046,23 @@
         <f>HLOOKUP(B11,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48">
-        <f>HLOOKUP(B11,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="48">
-        <f>HLOOKUP(B11,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="G11" s="15">
+        <f>HLOOKUP(B11,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f>HLOOKUP(B11,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
         <f>HLOOKUP(B11,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J11" s="48">
-        <f>HLOOKUP(B11,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="48">
+      <c r="J11" s="15">
+        <f>HLOOKUP(B11,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
         <f>HLOOKUP(B11,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3764,7 +4072,7 @@
       <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3780,23 +4088,23 @@
         <f>HLOOKUP(B12,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G12" s="48">
-        <f>HLOOKUP(B12,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="48">
-        <f>HLOOKUP(B12,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="48">
+      <c r="G12" s="15">
+        <f>HLOOKUP(B12,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f>HLOOKUP(B12,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <f>HLOOKUP(B12,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J12" s="48">
-        <f>HLOOKUP(B12,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="48">
+      <c r="J12" s="15">
+        <f>HLOOKUP(B12,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <f>HLOOKUP(B12,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3806,7 +4114,7 @@
       <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3822,23 +4130,23 @@
         <f>HLOOKUP(B13,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G13" s="48">
-        <f>HLOOKUP(B13,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="48">
-        <f>HLOOKUP(B13,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="48">
+      <c r="G13" s="15">
+        <f>HLOOKUP(B13,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <f>HLOOKUP(B13,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <f>HLOOKUP(B13,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J13" s="48">
-        <f>HLOOKUP(B13,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="48">
+      <c r="J13" s="15">
+        <f>HLOOKUP(B13,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <f>HLOOKUP(B13,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3848,7 +4156,7 @@
       <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3864,23 +4172,23 @@
         <f>HLOOKUP(B14,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G14" s="48">
-        <f>HLOOKUP(B14,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="48">
-        <f>HLOOKUP(B14,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="48">
+      <c r="G14" s="15">
+        <f>HLOOKUP(B14,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f>HLOOKUP(B14,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
         <f>HLOOKUP(B14,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48">
-        <f>HLOOKUP(B14,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="48">
+      <c r="J14" s="15">
+        <f>HLOOKUP(B14,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <f>HLOOKUP(B14,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3890,7 +4198,7 @@
       <c r="B15" s="11">
         <v>7</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3906,23 +4214,23 @@
         <f>HLOOKUP(B15,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G15" s="48">
-        <f>HLOOKUP(B15,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="48">
-        <f>HLOOKUP(B15,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="48">
+      <c r="G15" s="15">
+        <f>HLOOKUP(B15,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <f>HLOOKUP(B15,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
         <f>HLOOKUP(B15,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J15" s="48">
-        <f>HLOOKUP(B15,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="48">
+      <c r="J15" s="15">
+        <f>HLOOKUP(B15,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <f>HLOOKUP(B15,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3932,7 +4240,7 @@
       <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3948,23 +4256,23 @@
         <f>HLOOKUP(B16,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48">
-        <f>HLOOKUP(B16,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48">
-        <f>HLOOKUP(B16,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="48">
+      <c r="G16" s="15">
+        <f>HLOOKUP(B16,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <f>HLOOKUP(B16,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
         <f>HLOOKUP(B16,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J16" s="48">
-        <f>HLOOKUP(B16,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
+      <c r="J16" s="15">
+        <f>HLOOKUP(B16,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <f>HLOOKUP(B16,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -3974,7 +4282,7 @@
       <c r="B17" s="11">
         <v>9</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3990,23 +4298,23 @@
         <f>HLOOKUP(B17,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G17" s="48">
-        <f>HLOOKUP(B17,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="48">
-        <f>HLOOKUP(B17,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="48">
+      <c r="G17" s="15">
+        <f>HLOOKUP(B17,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <f>HLOOKUP(B17,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
         <f>HLOOKUP(B17,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J17" s="48">
-        <f>HLOOKUP(B17,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="48">
+      <c r="J17" s="15">
+        <f>HLOOKUP(B17,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <f>HLOOKUP(B17,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4016,7 +4324,7 @@
       <c r="B18" s="11">
         <v>10</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4032,23 +4340,23 @@
         <f>HLOOKUP(B18,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G18" s="48">
-        <f>HLOOKUP(B18,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="48">
-        <f>HLOOKUP(B18,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="48">
+      <c r="G18" s="15">
+        <f>HLOOKUP(B18,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <f>HLOOKUP(B18,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <f>HLOOKUP(B18,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J18" s="48">
-        <f>HLOOKUP(B18,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="48">
+      <c r="J18" s="15">
+        <f>HLOOKUP(B18,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
         <f>HLOOKUP(B18,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4058,7 +4366,7 @@
       <c r="B19" s="11">
         <v>11</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4074,23 +4382,23 @@
         <f>HLOOKUP(B19,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G19" s="48">
-        <f>HLOOKUP(B19,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="48">
-        <f>HLOOKUP(B19,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="48">
+      <c r="G19" s="15">
+        <f>HLOOKUP(B19,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <f>HLOOKUP(B19,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
         <f>HLOOKUP(B19,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J19" s="48">
-        <f>HLOOKUP(B19,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="48">
+      <c r="J19" s="15">
+        <f>HLOOKUP(B19,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
         <f>HLOOKUP(B19,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4100,7 +4408,7 @@
       <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4116,23 +4424,23 @@
         <f>HLOOKUP(B20,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G20" s="48">
-        <f>HLOOKUP(B20,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <f>HLOOKUP(B20,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
+      <c r="G20" s="15">
+        <f>HLOOKUP(B20,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <f>HLOOKUP(B20,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
         <f>HLOOKUP(B20,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48">
-        <f>HLOOKUP(B20,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
+      <c r="J20" s="15">
+        <f>HLOOKUP(B20,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <f>HLOOKUP(B20,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4142,7 +4450,7 @@
       <c r="B21" s="11">
         <v>13</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4158,23 +4466,23 @@
         <f>HLOOKUP(B21,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G21" s="48">
-        <f>HLOOKUP(B21,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="48">
-        <f>HLOOKUP(B21,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
+      <c r="G21" s="15">
+        <f>HLOOKUP(B21,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f>HLOOKUP(B21,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
         <f>HLOOKUP(B21,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J21" s="48">
-        <f>HLOOKUP(B21,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="48">
+      <c r="J21" s="15">
+        <f>HLOOKUP(B21,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
         <f>HLOOKUP(B21,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4184,7 +4492,7 @@
       <c r="B22" s="11">
         <v>14</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4200,23 +4508,23 @@
         <f>HLOOKUP(B22,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G22" s="48">
-        <f>HLOOKUP(B22,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="48">
-        <f>HLOOKUP(B22,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="48">
+      <c r="G22" s="15">
+        <f>HLOOKUP(B22,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f>HLOOKUP(B22,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
         <f>HLOOKUP(B22,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J22" s="48">
-        <f>HLOOKUP(B22,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="48">
+      <c r="J22" s="15">
+        <f>HLOOKUP(B22,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
         <f>HLOOKUP(B22,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
@@ -4226,7 +4534,7 @@
       <c r="B23" s="11">
         <v>15</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4242,38 +4550,30 @@
         <f>HLOOKUP(B23,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
         <v>0</v>
       </c>
-      <c r="G23" s="48">
-        <f>HLOOKUP(B23,'Game Environment'!D$8:S$32,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="48">
-        <f>HLOOKUP(B23,Character!D$8:S$51,44,FALSE) /Character!$C$6 *$H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="48">
+      <c r="G23" s="15">
+        <f>HLOOKUP(B23,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <f>HLOOKUP(B23,Character!D$8:S$52,44,FALSE) /Character!$C$6 *$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
         <f>HLOOKUP(B23,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
         <v>0</v>
       </c>
-      <c r="J23" s="48">
-        <f>HLOOKUP(B23,'Pause &amp; Player Bar'!D$8:S$23,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="48">
+      <c r="J23" s="15">
+        <f>HLOOKUP(B23,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
         <f>HLOOKUP(B23,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4281,12 +4581,7 @@
     <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="H5:H6"/>
+  <mergeCells count="12">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B7"/>
@@ -4295,7 +4590,16 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="E8:K23">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$L8="NF"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4304,10 +4608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260DDBB-0696-48DC-8544-B50A09AC7C8F}">
-  <dimension ref="B2:S27"/>
+  <dimension ref="B2:S29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,48 +4625,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="18">
@@ -4378,24 +4682,24 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
@@ -4476,7 +4780,7 @@
       <c r="S9" s="26"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13">
@@ -4503,7 +4807,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="13">
@@ -4530,7 +4834,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="13">
@@ -4557,7 +4861,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="13">
@@ -4584,7 +4888,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="13">
@@ -4611,7 +4915,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="13">
@@ -4638,7 +4942,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13">
@@ -4665,7 +4969,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="13">
@@ -4714,7 +5018,7 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="13">
@@ -4741,7 +5045,7 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="13">
@@ -4790,7 +5094,7 @@
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="13">
@@ -4817,7 +5121,7 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="13">
@@ -4844,7 +5148,7 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="13">
@@ -4871,7 +5175,7 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="13">
@@ -4898,7 +5202,7 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="13">
@@ -4932,75 +5236,85 @@
         <v>100</v>
       </c>
       <c r="E27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, E10:E17) / 2, 0)</f>
+        <f t="shared" ref="E27:S27" si="1">IFERROR(SUMPRODUCT($C$9:$C$16, E10:E17) / 2, 0)</f>
         <v>0</v>
       </c>
       <c r="F27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, F10:F17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, G10:G17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, H10:H17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, I10:I17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, J10:J17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, K10:K17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, L10:L17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, M10:M17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, N10:N17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, O10:O17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, P10:P17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, Q10:Q17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, R10:R17) / 2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="17">
-        <f>IFERROR(SUMPRODUCT($C$9:$C$16, S10:S17) / 2, 0)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:S23 E25:S26" xr:uid="{B69FD812-A7D8-4568-987A-B5606766DBEF}">
       <formula1>"0,1,2"</formula1>
@@ -5017,7 +5331,7 @@
   <dimension ref="B2:T24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,49 +5345,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5148,24 +5462,24 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
@@ -5242,7 +5556,7 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="13">
@@ -5268,7 +5582,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="13">
@@ -5294,7 +5608,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="13">
@@ -5320,7 +5634,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13">
@@ -5368,7 +5682,7 @@
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="13">
@@ -5394,7 +5708,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="13">
@@ -5442,7 +5756,7 @@
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="13">
@@ -5468,7 +5782,7 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="13">
@@ -5494,7 +5808,7 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="13">
@@ -5520,7 +5834,7 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="13">
@@ -5617,17 +5931,24 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
+      <c r="B24" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:S7"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:S16 E18:S21 E11:S11 E13:S13" xr:uid="{C2596A1F-DB3A-400C-9850-C11A35C9833C}">
       <formula1>"0,1,2"</formula1>
@@ -5641,10 +5962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C97552-A148-4D56-9BA3-5CE1794ECD23}">
-  <dimension ref="B2:T32"/>
+  <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,49 +5979,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5748,7 +6069,7 @@
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
-        <f>SUM(C9:C28)</f>
+        <f>SUM(C9:C32)</f>
         <v>100</v>
       </c>
       <c r="D6" s="9"/>
@@ -5775,24 +6096,24 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
@@ -5869,7 +6190,7 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="13">
@@ -5896,14 +6217,14 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="13">
         <v>5</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" ref="D11:D16" si="0">C11</f>
+        <f t="shared" ref="D11" si="0">C11</f>
         <v>5</v>
       </c>
       <c r="E11" s="16"/>
@@ -5924,7 +6245,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5945,15 +6266,15 @@
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>56</v>
+      <c r="B13" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C13</f>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -5971,15 +6292,15 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>55</v>
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="C14" s="13">
         <v>5</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="0"/>
+        <f>C14</f>
         <v>5</v>
       </c>
       <c r="E14" s="16"/>
@@ -5998,85 +6319,85 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="47">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="D15" s="49">
-        <f t="shared" si="0"/>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15" si="1">C15</f>
         <v>5</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="47">
-        <v>5</v>
-      </c>
-      <c r="D16" s="49">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="B17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16">
+        <f>C17</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>51</v>
+      <c r="B18" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
@@ -6101,16 +6422,16 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>50</v>
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="C19" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="16">
         <f>C19</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -6129,15 +6450,15 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>49</v>
+      <c r="B20" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" s="16">
         <f>C20</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -6155,43 +6476,38 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13">
-        <v>5</v>
-      </c>
-      <c r="D21" s="16">
-        <f>C21</f>
-        <v>5</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
-        <v>47</v>
+      <c r="B22" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="16">
-        <f>C22</f>
-        <v>10</v>
+        <f t="shared" ref="D22:D30" si="2">C22</f>
+        <v>3</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -6210,15 +6526,15 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>46</v>
+      <c r="B23" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23" s="16">
-        <f>C23</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -6237,15 +6553,15 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>44</v>
+      <c r="B24" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="16">
-        <f>C24</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -6264,15 +6580,15 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>45</v>
+      <c r="B25" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="16">
-        <f>C25</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -6291,15 +6607,15 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>53</v>
+      <c r="B26" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D26" s="16">
-        <f>C26</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -6317,38 +6633,43 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>58</v>
+      <c r="B28" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="16">
-        <f>C28</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -6367,15 +6688,15 @@
       <c r="S28" s="16"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
-        <v>57</v>
+      <c r="B29" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="16">
-        <f>C29</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -6394,15 +6715,15 @@
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>59</v>
+      <c r="B30" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="16">
-        <f>C30</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -6420,103 +6741,216 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="13">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16">
+        <f>C32</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13">
+        <v>5</v>
+      </c>
+      <c r="D33" s="16">
+        <f>C33</f>
+        <v>5</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="13">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16">
+        <f>C34</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13">
-        <v>5</v>
-      </c>
-      <c r="D31" s="16">
-        <f>C31</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="20">
-        <f>SUM(D10:D28)</f>
+      <c r="C35" s="13">
+        <v>3</v>
+      </c>
+      <c r="D35" s="16">
+        <f>C35</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="20">
+        <f>SUM(D10:D32)</f>
         <v>100</v>
       </c>
-      <c r="E32" s="20">
-        <f>SUM(E10:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <f>SUM(F10:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <f>SUM(G10:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="20">
-        <f>SUM(H10:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
-        <f>SUM(I10:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="20">
-        <f>SUM(J10:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="20">
-        <f>SUM(K10:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="20">
-        <f>SUM(L10:L28)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="20">
-        <f>SUM(M10:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="20">
-        <f>SUM(N10:N28)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="20">
-        <f>SUM(O10:O28)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="20">
-        <f>SUM(P10:P28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20">
-        <f>SUM(Q10:Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="20">
-        <f>SUM(R10:R28)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="20">
-        <f>SUM(S10:S28)</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="20">
+        <f>SUM(E10:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <f>SUM(F10:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <f>SUM(G10:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <f>SUM(H10:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <f>SUM(I10:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <f>SUM(J10:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="20">
+        <f>SUM(K10:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <f>SUM(L10:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <f>SUM(M10:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="20">
+        <f>SUM(N10:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <f>SUM(O10:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="20">
+        <f>SUM(P10:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="20">
+        <f>SUM(Q10:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="20">
+        <f>SUM(R10:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f>SUM(S10:S32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -6524,7 +6958,7 @@
     <mergeCell ref="D7:S7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E14:S14 E18:S26 E28:S32 E16:S16" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E18:S18 E22:S30 E32:S36 E20:S20 E15:S15" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6536,10 +6970,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87AAC42-D3CB-409A-96C7-2F7D6285C82B}">
-  <dimension ref="B2:T51"/>
+  <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D9:D50"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,49 +6987,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6670,24 +7104,24 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
@@ -6764,7 +7198,7 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="13">
@@ -6791,7 +7225,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="13">
@@ -6818,7 +7252,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="13">
@@ -6845,7 +7279,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="13">
@@ -6872,85 +7306,85 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="16">
         <f>C14</f>
         <v>3</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="13">
         <v>3</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="16">
         <f>C15</f>
         <v>3</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="16">
         <f>C16</f>
         <v>5</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
@@ -6975,14 +7409,14 @@
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="13">
         <v>2</v>
       </c>
       <c r="D18" s="16">
-        <f>C18</f>
+        <f t="shared" ref="D18:D23" si="1">C18</f>
         <v>2</v>
       </c>
       <c r="E18" s="16"/>
@@ -7002,14 +7436,14 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="13">
         <v>2</v>
       </c>
       <c r="D19" s="16">
-        <f>C19</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E19" s="16"/>
@@ -7029,14 +7463,14 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
       </c>
       <c r="D20" s="16">
-        <f>C20</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E20" s="16"/>
@@ -7056,14 +7490,14 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="13">
         <v>2</v>
       </c>
       <c r="D21" s="16">
-        <f>C21</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E21" s="16"/>
@@ -7083,14 +7517,14 @@
       <c r="S21" s="16"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
       </c>
       <c r="D22" s="16">
-        <f>C22</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E22" s="16"/>
@@ -7110,14 +7544,14 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="16">
-        <f>C23</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E23" s="16"/>
@@ -7159,14 +7593,14 @@
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="13">
         <v>2</v>
       </c>
       <c r="D25" s="16">
-        <f>C25</f>
+        <f t="shared" ref="D25:D35" si="2">C25</f>
         <v>2</v>
       </c>
       <c r="E25" s="16"/>
@@ -7186,14 +7620,14 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="13">
         <v>2</v>
       </c>
       <c r="D26" s="16">
-        <f>C26</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
@@ -7213,14 +7647,14 @@
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="13">
         <v>2</v>
       </c>
       <c r="D27" s="16">
-        <f>C27</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E27" s="16"/>
@@ -7240,14 +7674,14 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="13">
         <v>3</v>
       </c>
       <c r="D28" s="16">
-        <f>C28</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E28" s="16"/>
@@ -7267,14 +7701,14 @@
       <c r="S28" s="16"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
       </c>
       <c r="D29" s="16">
-        <f>C29</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E29" s="16"/>
@@ -7294,14 +7728,14 @@
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="13">
         <v>5</v>
       </c>
       <c r="D30" s="16">
-        <f>C30</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E30" s="16"/>
@@ -7328,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="21">
-        <f>C31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31" s="22"/>
@@ -7348,14 +7782,14 @@
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="13">
         <v>2</v>
       </c>
       <c r="D32" s="16">
-        <f>C32</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E32" s="16"/>
@@ -7375,14 +7809,14 @@
       <c r="S32" s="16"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="13">
         <v>5</v>
       </c>
       <c r="D33" s="16">
-        <f>C33</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E33" s="16"/>
@@ -7402,14 +7836,14 @@
       <c r="S33" s="16"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="13">
         <v>3</v>
       </c>
       <c r="D34" s="16">
-        <f>C34</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E34" s="16"/>
@@ -7429,14 +7863,14 @@
       <c r="S34" s="16"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="13">
         <v>2</v>
       </c>
       <c r="D35" s="16">
-        <f>C35</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E35" s="16"/>
@@ -7478,7 +7912,7 @@
       <c r="S36" s="22"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="29" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="13">
@@ -7505,7 +7939,7 @@
       <c r="S37" s="16"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="13">
@@ -7532,7 +7966,7 @@
       <c r="S38" s="16"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="29" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="13">
@@ -7559,7 +7993,7 @@
       <c r="S39" s="16"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="13">
@@ -7608,7 +8042,7 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="29" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="13">
@@ -7635,7 +8069,7 @@
       <c r="S42" s="16"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="29" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="13">
@@ -7662,7 +8096,7 @@
       <c r="S43" s="16"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C44" s="13">
@@ -7689,7 +8123,7 @@
       <c r="S44" s="16"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="13">
@@ -7738,7 +8172,7 @@
       <c r="S46" s="22"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="13">
@@ -7765,7 +8199,7 @@
       <c r="S47" s="16"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="29" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="13">
@@ -7792,7 +8226,7 @@
       <c r="S48" s="16"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="13">
@@ -7819,7 +8253,7 @@
       <c r="S49" s="16"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="29" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="13">
@@ -7845,76 +8279,113 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="20">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="13">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16">
+        <f>C51</f>
+        <v>5</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="20">
         <f>SUM(D10:D50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E52" s="20">
         <f>SUM(E23:E42)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F52" s="20">
         <f>SUM(F23:F42)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G52" s="20">
         <f>SUM(G23:G42)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H52" s="20">
         <f>SUM(H23:H42)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I52" s="20">
         <f>SUM(I23:I42)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J52" s="20">
         <f>SUM(J23:J42)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K52" s="20">
         <f>SUM(K23:K42)</f>
         <v>0</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L52" s="20">
         <f>SUM(L23:L42)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M52" s="20">
         <f>SUM(M23:M42)</f>
         <v>0</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N52" s="20">
         <f>SUM(N23:N42)</f>
         <v>0</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O52" s="20">
         <f>SUM(O23:O42)</f>
         <v>0</v>
       </c>
-      <c r="P51" s="20">
+      <c r="P52" s="20">
         <f>SUM(P23:P42)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q52" s="20">
         <f>SUM(Q23:Q42)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R52" s="20">
         <f>SUM(R23:R42)</f>
         <v>0</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S52" s="20">
         <f>SUM(S23:S42)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -7922,7 +8393,7 @@
     <mergeCell ref="D7:S7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E19:S19 E25:S30 E21:S21 E23:S23 E32:S35 E37:S40 E42:S45 E47:S51 E13:S16" xr:uid="{82EFD33F-613E-43CE-B2BA-BD934EB18F49}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E19:S19 E25:S30 E21:S21 E23:S23 E32:S35 E37:S40 E42:S45 E13:S16 E47:S52" xr:uid="{82EFD33F-613E-43CE-B2BA-BD934EB18F49}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7934,10 +8405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250F423-359F-4D10-95FC-95DDE46C12FA}">
-  <dimension ref="B2:T52"/>
+  <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,49 +8422,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8068,24 +8539,24 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
@@ -8162,7 +8633,7 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="13">
@@ -8189,7 +8660,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="13">
@@ -8216,7 +8687,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="13">
@@ -8243,7 +8714,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="13">
@@ -8270,7 +8741,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="13">
@@ -8297,7 +8768,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="13">
@@ -8346,14 +8817,14 @@
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
       </c>
       <c r="D17" s="16">
-        <f>C17</f>
+        <f t="shared" ref="D17:D23" si="2">C17</f>
         <v>3</v>
       </c>
       <c r="E17" s="16"/>
@@ -8373,14 +8844,14 @@
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="13">
         <v>3</v>
       </c>
       <c r="D18" s="16">
-        <f>C18</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E18" s="16"/>
@@ -8400,14 +8871,14 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
       </c>
       <c r="D19" s="16">
-        <f>C19</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E19" s="16"/>
@@ -8427,14 +8898,14 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
       </c>
       <c r="D20" s="16">
-        <f>C20</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E20" s="16"/>
@@ -8454,14 +8925,14 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="13">
         <v>3</v>
       </c>
       <c r="D21" s="16">
-        <f>C21</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E21" s="16"/>
@@ -8481,14 +8952,14 @@
       <c r="S21" s="16"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
       </c>
       <c r="D22" s="16">
-        <f>C22</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E22" s="16"/>
@@ -8508,14 +8979,14 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="16">
-        <f>C23</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E23" s="16"/>
@@ -8557,7 +9028,7 @@
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="13">
@@ -8606,7 +9077,7 @@
       <c r="S26" s="22"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="13">
@@ -8633,7 +9104,7 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="13">
@@ -8682,7 +9153,7 @@
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="13">
@@ -8709,7 +9180,7 @@
       <c r="S30" s="16"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="29" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="13">
@@ -8758,7 +9229,7 @@
       <c r="S32" s="22"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="13">
@@ -8785,7 +9256,7 @@
       <c r="S33" s="16"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="13">
@@ -8815,26 +9286,26 @@
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="13">
@@ -8861,389 +9332,389 @@
       <c r="S36" s="16"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="13">
         <v>3</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="16">
         <f>C37</f>
         <v>3</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="13">
         <v>3</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="16">
         <f>C38</f>
         <v>3</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
     </row>
     <row r="39" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="13">
         <v>4</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="16">
         <f>C40</f>
         <v>4</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
     </row>
     <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="13">
         <v>3</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="16">
         <f>C42</f>
         <v>3</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="13">
         <v>3</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="16">
         <f>C43</f>
         <v>3</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
     </row>
     <row r="44" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="13">
         <v>3</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="16">
         <f>C45</f>
         <v>3</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="13">
         <v>3</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="16">
         <f>C46</f>
         <v>3</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="13">
         <v>3</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="16">
         <f>C47</f>
         <v>3</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
     </row>
     <row r="48" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="13">
         <v>3</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="16">
         <f>C49</f>
         <v>3</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="13">
         <v>5</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="16">
         <f>C50</f>
         <v>5</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="13">
         <v>2</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="16">
         <f>C51</f>
         <v>2</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
     </row>
     <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
@@ -9253,68 +9724,78 @@
         <v>100</v>
       </c>
       <c r="E52" s="20">
-        <f>SUM(E16:E25)</f>
+        <f t="shared" ref="E52:S52" si="3">SUM(E16:E25)</f>
         <v>0</v>
       </c>
       <c r="F52" s="20">
-        <f>SUM(F16:F25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G52" s="20">
-        <f>SUM(G16:G25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="20">
-        <f>SUM(H16:H25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="20">
-        <f>SUM(I16:I25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52" s="20">
-        <f>SUM(J16:J25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K52" s="20">
-        <f>SUM(K16:K25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <f>SUM(L16:L25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M52" s="20">
-        <f>SUM(M16:M25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N52" s="20">
-        <f>SUM(N16:N25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52" s="20">
-        <f>SUM(O16:O25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P52" s="20">
-        <f>SUM(P16:P25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q52" s="20">
-        <f>SUM(Q16:Q25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R52" s="20">
-        <f>SUM(R16:R25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S52" s="20">
-        <f>SUM(S16:S25)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -9334,132 +9815,132 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786FEEB4-0814-4B48-93FE-8EC2D2A6D310}">
-  <dimension ref="B2:T23"/>
+  <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11" style="40" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="40"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="43"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="42"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="50">
+      <c r="B6" s="9"/>
+      <c r="C6" s="18">
         <f>SUM(C9:C22)</f>
         <v>100</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
@@ -9468,495 +9949,608 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="12">
         <v>4</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="12">
         <v>5</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="12">
         <v>6</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="12">
         <v>7</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="12">
         <v>8</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="12">
         <v>9</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="12">
         <v>10</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="12">
         <v>11</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="12">
         <v>12</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="12">
         <v>13</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="12">
         <v>14</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="16">
         <f>C10</f>
         <v>10</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="16">
         <f>C12</f>
         <v>10</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="13">
         <v>20</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="16">
         <f>C14</f>
         <v>20</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="13">
         <v>10</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="16">
         <f>C16</f>
         <v>10</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="16">
         <f>C18</f>
         <v>10</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="13">
         <v>15</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="16">
         <f>C19</f>
         <v>15</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="13">
         <v>10</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="16">
         <f>C21</f>
         <v>10</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="13">
         <v>15</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="16">
         <f>C22</f>
         <v>15</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52">
+      <c r="B23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="13">
+        <v>10</v>
+      </c>
+      <c r="D24" s="16">
+        <f>C24</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="13">
+        <v>15</v>
+      </c>
+      <c r="D25" s="16">
+        <f>C25</f>
+        <v>15</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="13">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16">
+        <f>C26</f>
+        <v>15</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+    </row>
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20">
         <f>SUM(D9:D22)</f>
         <v>100</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E27" s="20">
         <f>SUM(E13:E16)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F27" s="20">
         <f>SUM(F13:F16)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G27" s="20">
         <f>SUM(G13:G16)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H27" s="20">
         <f>SUM(H13:H16)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I27" s="20">
         <f>SUM(I13:I16)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J27" s="20">
         <f>SUM(J13:J16)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K27" s="20">
         <f>SUM(K13:K16)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L27" s="20">
         <f>SUM(L13:L16)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="52">
+      <c r="M27" s="20">
         <f>SUM(M13:M16)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N27" s="20">
         <f>SUM(N13:N16)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O27" s="20">
         <f>SUM(O13:O16)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="52">
+      <c r="P27" s="20">
         <f>SUM(P13:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q27" s="20">
         <f>SUM(Q13:Q16)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="52">
+      <c r="R27" s="20">
         <f>SUM(R13:R16)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="52">
+      <c r="S27" s="20">
         <f>SUM(S13:S16)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -9964,7 +10558,7 @@
     <mergeCell ref="D7:S7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:S14 E16:S16 E12:S12 E21:S23 E18:S19" xr:uid="{054903B6-7C31-46EC-80EB-A35AB3B57F85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:S14 E16:S16 E12:S12 E18:S19 E21:S22 E24:S27" xr:uid="{054903B6-7C31-46EC-80EB-A35AB3B57F85}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9976,132 +10570,132 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF588F-F94F-49F5-946C-16DEDC0DBC41}">
-  <dimension ref="B2:T14"/>
+  <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11" style="40" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="40"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="43"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="42"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="50">
+      <c r="B6" s="9"/>
+      <c r="C6" s="18">
         <f>SUM(C9:C13)</f>
         <v>100</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
@@ -10110,282 +10704,292 @@
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="12">
         <v>4</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="12">
         <v>5</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="12">
         <v>6</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="12">
         <v>7</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="12">
         <v>8</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="12">
         <v>9</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="12">
         <v>10</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="12">
         <v>11</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="12">
         <v>12</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="12">
         <v>13</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="12">
         <v>14</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="13">
         <v>20</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="16">
         <f>C9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="13">
         <v>20</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="16">
         <f t="shared" ref="D10" si="0">C10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="16">
         <f>C11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="13">
         <v>30</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="16">
         <f>C12</f>
         <v>30</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="13">
         <v>20</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="16">
         <f t="shared" ref="D13" si="1">C13</f>
         <v>20</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="52">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="20">
         <f>SUM(D9:D13)</f>
         <v>100</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="20">
         <f t="shared" ref="E14:S14" si="2">SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="52">
+      <c r="R14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="52">
+      <c r="S14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>

--- a/scoring-template.xlsx
+++ b/scoring-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\hollow-knight\hollow-knight-js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hollow-knight-js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09128E0-3B15-4B3A-BF8C-E8EB81D077F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3DBBE1-4675-4165-975D-695B04122017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="8" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Enemy" sheetId="10" r:id="rId6"/>
     <sheet name="Pause &amp; Player Bar" sheetId="11" r:id="rId7"/>
     <sheet name="Credit" sheetId="12" r:id="rId8"/>
+    <sheet name="Prototype" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,20 +90,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{4514AF01-7E8F-4C1D-AC88-7E521B8F31F8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{96DC894D-359C-4A93-B473-EFC593717AA9}">
@@ -130,22 +124,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{897B24F7-839A-412D-8359-372DB9751EB0}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{A34E64BE-BEF1-42A1-9FCB-475E2BE1F6BA}">
@@ -485,20 +469,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{37940635-88FF-4125-B9A4-34C7F9E3EBD2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{A6913EE4-0BAE-4289-8345-ED31A52DB279}">
@@ -528,22 +502,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{074E87B6-7FAC-42E0-8A7C-A8F306C30F53}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CD81AFFD-1466-4BA3-97E2-1E689650982D}">
@@ -777,20 +741,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{AA75CCD3-8C2A-43CB-AC15-18B07EA9966D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{3B1D7A88-477C-40CC-8591-2E350AC7880B}">
@@ -820,22 +774,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{BD4AE21C-5745-4F51-9D0F-E7D68617414D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CF26B1E0-EB13-4E45-B965-93D0D4361965}">
@@ -1167,20 +1111,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{64177324-8F3A-42B1-BCAC-3084037D53C9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{35EA2246-2D77-43CB-882A-B37DC21E4549}">
@@ -1210,22 +1144,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{F18F38FC-89B0-451C-89C0-F586AE97AD82}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{8083EBD2-879B-4795-9CE9-8136957CB1F8}">
@@ -1628,20 +1552,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3A99FF84-AC4D-43E8-877A-6BDD1EC7B3FB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{298C2853-BC95-4A47-9C01-8CD3CC4F9D76}">
@@ -1671,22 +1585,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{C324183A-839C-469E-9697-60E49EA3C890}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5C2E5588-416D-4AB4-BFA8-B29CC2AD6F7E}">
@@ -2089,20 +1993,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{371C81CD-2583-4077-AE9D-543E242844C3}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{12A22070-FB96-49C8-B622-A6267A98BC24}">
@@ -2132,22 +2026,12 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{430EFBEF-0AE2-4995-9727-BE06994799AB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
-        </r>
       </text>
     </comment>
     <comment ref="B19" authorId="1" shapeId="0" xr:uid="{83438199-738D-4F30-9EE9-4CDF9293C6EB}">
@@ -2309,20 +2193,10 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{EBB29502-A7AA-4340-BA91-A222C4FF868B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
-        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{6B82EE39-6505-478D-AC44-2BBF035AB592}">
@@ -2352,21 +2226,35 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{6062114B-32F6-47FD-BB20-297F4E9135E1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{294159D9-66CB-4D72-B3E6-04253765041F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Semua volume dimatikan, kecuali victory theme</t>
         </r>
       </text>
     </comment>
@@ -2394,6 +2282,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{1B4D2C9B-D8C2-4BAB-9A9A-9F868C2FB1C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Warna game akan lebih hitam ketika memasuki credit scene</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="1" shapeId="0" xr:uid="{97AB6D24-8D10-414A-9A09-3209A7AAAE7B}">
       <text>
         <r>
@@ -2415,6 +2327,231 @@
           </rPr>
           <t xml:space="preserve">
 - animasi dari bawah ke atas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{4BDA67F7-9519-4614-B3F4-9FD2EE45A0E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Video ditampilkan ketika credit selesai ditulis</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={36DEB9D7-DCE6-4FE1-8F25-2F68E66C291F}</author>
+    <author>TinTin</author>
+    <author>tc={67FA78BB-512D-45B0-AEF7-26E503428221}</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{36DEB9D7-DCE6-4FE1-8F25-2F68E66C291F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Total Weight</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{437A8741-A95B-4751-894E-FE133FD6B175}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Benar + Lengkap = 2 Salah/Kurang = 1 
+Tidak Ada  = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="2" shapeId="0" xr:uid="{67FA78BB-512D-45B0-AEF7-26E503428221}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 -&gt; Easy
+2 -&gt; Medium
+3 -&gt; Hard</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{8966F740-4641-4F02-8D1D-AFAED4672268}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- membuat minimal 3 color style dan DIPAKAI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{DC859404-4D2C-44BE-9562-35824370432B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Membuat minimal 3 text style dan dipakai</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{D94AD683-C3AB-4F45-9DA4-BFD09AFE497A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- jika ada 2 component dan dipakai, dihitung benar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{E04523ED-F8BF-438E-A3B8-9F97C5FE966E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- jika ada 3 interactive component (hover / click)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{A0D594B7-BFA9-4FD1-97AC-45C54126E40B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- navbar (6)
+- footer (6)
+- modal (6)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{D621309E-591E-4D00-9E9C-707836816CFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Semua halaman di buat lengkap </t>
         </r>
       </text>
     </comment>
@@ -2423,7 +2560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
   <si>
     <t>Grade</t>
   </si>
@@ -2936,19 +3073,47 @@
   </si>
   <si>
     <t>*Note : Salah 1 Bagi 2</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Color Style</t>
+  </si>
+  <si>
+    <t>Text Style</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Variant &amp; Interactive Components</t>
+  </si>
+  <si>
+    <t>Web Structure</t>
+  </si>
+  <si>
+    <t>Completeness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3200,126 +3365,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3329,7 +3497,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3340,17 +3508,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3773,50 +3933,63 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C6" dT="2022-10-28T09:29:19.54" personId="{9DBBB890-6DC7-41D6-8461-0A26B11FDAA6}" id="{36DEB9D7-DCE6-4FE1-8F25-2F68E66C291F}">
+    <text>Total Weight</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2022-10-28T09:26:54.59" personId="{9DBBB890-6DC7-41D6-8461-0A26B11FDAA6}" id="{67FA78BB-512D-45B0-AEF7-26E503428221}">
+    <text>1 -&gt; Easy
+2 -&gt; Medium
+3 -&gt; Hard</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01786E0A-BF75-45AD-BAFB-97FFFB484BCE}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.15234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="10.69140625" style="6" customWidth="1"/>
+    <col min="5" max="7" width="15.69140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.69140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.15234375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="18.84375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.84375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:13" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:13" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3825,60 +3998,64 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="14">
         <v>15</v>
@@ -3893,19 +4070,22 @@
         <v>15</v>
       </c>
       <c r="J7" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" s="14">
         <v>5</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="14">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="11">
-        <f>IF(ISBLANK(L8), ROUNDUP(SUM(E8:K8), 0), 0)</f>
+        <f>IF(ISBLANK(M8), ROUNDUP(SUM(E8:L8), 0), 0)</f>
         <v>100</v>
       </c>
       <c r="D8" s="11" t="str">
@@ -3914,7 +4094,7 @@
       </c>
       <c r="E8" s="15">
         <f>HLOOKUP(B8,Page!D$8:S$27,20,FALSE) /Page!$C$6 *$E$7</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="15">
         <f>HLOOKUP(B8,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
@@ -3934,20 +4114,24 @@
       </c>
       <c r="J8" s="15">
         <f>HLOOKUP(B8,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8" s="15">
         <f>HLOOKUP(B8,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>5</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="15">
+        <f>HLOOKUP(B8,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>10</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" ref="C9:C23" si="0">IF(ISBLANK(L9), ROUNDUP(SUM(E9:K9), 0), 0)</f>
+        <f>IF(ISBLANK(M9), ROUNDUP(SUM(E9:K9), 0), 0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="11" t="str">
@@ -3982,18 +4166,22 @@
         <f>HLOOKUP(B9,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="15">
+        <f>HLOOKUP(B9,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(M10), ROUNDUP(SUM(E10:K10), 0), 0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f t="shared" ref="D10:D23" si="1" xml:space="preserve"> IF(C10 &gt;= 85, "A", IF(C10&gt;= 75, "B", IF(C10&gt;=65,"C", IF(C10&gt;=55, "D", "E"))))</f>
+        <f t="shared" ref="D10:D23" si="0" xml:space="preserve"> IF(C10 &gt;= 85, "A", IF(C10&gt;= 75, "B", IF(C10&gt;=65,"C", IF(C10&gt;=55, "D", "E"))))</f>
         <v>E</v>
       </c>
       <c r="E10" s="15">
@@ -4024,18 +4212,22 @@
         <f>HLOOKUP(B10,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="15">
+        <f>HLOOKUP(B10,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11">
+        <f>IF(ISBLANK(M11), ROUNDUP(SUM(E11:K11), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E11" s="15">
@@ -4066,18 +4258,22 @@
         <f>HLOOKUP(B11,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="15">
+        <f>HLOOKUP(B11,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11">
         <v>4</v>
       </c>
       <c r="C12" s="11">
+        <f>IF(ISBLANK(M12), ROUNDUP(SUM(E12:K12), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E12" s="15">
@@ -4108,18 +4304,22 @@
         <f>HLOOKUP(B12,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="15">
+        <f>HLOOKUP(B12,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11">
         <v>5</v>
       </c>
       <c r="C13" s="11">
+        <f>IF(ISBLANK(M13), ROUNDUP(SUM(E13:K13), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E13" s="15">
@@ -4150,18 +4350,22 @@
         <f>HLOOKUP(B13,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="15">
+        <f>HLOOKUP(B13,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11">
         <v>6</v>
       </c>
       <c r="C14" s="11">
+        <f>IF(ISBLANK(M14), ROUNDUP(SUM(E14:K14), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E14" s="15">
@@ -4192,18 +4396,22 @@
         <f>HLOOKUP(B14,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="15">
+        <f>HLOOKUP(B14,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11">
         <v>7</v>
       </c>
       <c r="C15" s="11">
+        <f>IF(ISBLANK(M15), ROUNDUP(SUM(E15:K15), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E15" s="15">
@@ -4234,18 +4442,22 @@
         <f>HLOOKUP(B15,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="15">
+        <f>HLOOKUP(B15,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11">
         <v>8</v>
       </c>
       <c r="C16" s="11">
+        <f>IF(ISBLANK(M16), ROUNDUP(SUM(E16:K16), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E16" s="15">
@@ -4276,18 +4488,22 @@
         <f>HLOOKUP(B16,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="15">
+        <f>HLOOKUP(B16,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11">
         <v>9</v>
       </c>
       <c r="C17" s="11">
+        <f>IF(ISBLANK(M17), ROUNDUP(SUM(E17:K17), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E17" s="15">
@@ -4318,18 +4534,22 @@
         <f>HLOOKUP(B17,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="15">
+        <f>HLOOKUP(B17,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11">
         <v>10</v>
       </c>
       <c r="C18" s="11">
+        <f>IF(ISBLANK(M18), ROUNDUP(SUM(E18:K18), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E18" s="15">
@@ -4360,18 +4580,22 @@
         <f>HLOOKUP(B18,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="15">
+        <f>HLOOKUP(B18,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11">
         <v>11</v>
       </c>
       <c r="C19" s="11">
+        <f>IF(ISBLANK(M19), ROUNDUP(SUM(E19:K19), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E19" s="15">
@@ -4402,18 +4626,22 @@
         <f>HLOOKUP(B19,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="15">
+        <f>HLOOKUP(B19,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11">
         <v>12</v>
       </c>
       <c r="C20" s="11">
+        <f>IF(ISBLANK(M20), ROUNDUP(SUM(E20:K20), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E20" s="15">
@@ -4444,18 +4672,22 @@
         <f>HLOOKUP(B20,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="15">
+        <f>HLOOKUP(B20,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="11">
         <v>13</v>
       </c>
       <c r="C21" s="11">
+        <f>IF(ISBLANK(M21), ROUNDUP(SUM(E21:K21), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E21" s="15">
@@ -4486,18 +4718,22 @@
         <f>HLOOKUP(B21,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="15">
+        <f>HLOOKUP(B21,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11">
         <v>14</v>
       </c>
       <c r="C22" s="11">
+        <f>IF(ISBLANK(M22), ROUNDUP(SUM(E22:K22), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E22" s="15">
@@ -4528,18 +4764,22 @@
         <f>HLOOKUP(B22,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="15">
+        <f>HLOOKUP(B22,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
         <v>15</v>
       </c>
       <c r="C23" s="11">
+        <f>IF(ISBLANK(M23), ROUNDUP(SUM(E23:K23), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E23" s="15">
@@ -4570,18 +4810,27 @@
         <f>HLOOKUP(B23,Credit!D$8:S$14,7,FALSE) /Credit!$C$6 *$K$7</f>
         <v>0</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L23" s="15">
+        <f>HLOOKUP(B23,Prototype!D$8:S$15,8,FALSE) /Prototype!$C$6 *$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B7"/>
@@ -4590,14 +4839,15 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:K23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M8="NF"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L23">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$L8="NF"</formula>
+      <formula>$M8="NF"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4610,100 +4860,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260DDBB-0696-48DC-8544-B50A09AC7C8F}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="6.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="6.7109375" style="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.15234375" style="1" customWidth="1"/>
+    <col min="5" max="19" width="6.69140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:19" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-    </row>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C6" s="18">
         <f>SUM(C10:C26)</f>
         <v>100</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -4753,7 +5003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
@@ -4779,7 +5029,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +5056,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
@@ -4833,7 +5083,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +5110,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
@@ -4887,7 +5137,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
         <v>15</v>
       </c>
@@ -4914,7 +5164,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
@@ -4941,7 +5191,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -4968,7 +5218,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
@@ -4995,7 +5245,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
@@ -5017,7 +5267,7 @@
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="29" t="s">
         <v>38</v>
       </c>
@@ -5044,7 +5294,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="29" t="s">
         <v>39</v>
       </c>
@@ -5071,7 +5321,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5343,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
         <v>34</v>
       </c>
@@ -5120,7 +5370,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="29" t="s">
         <v>156</v>
       </c>
@@ -5147,7 +5397,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
@@ -5174,7 +5424,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="29" t="s">
         <v>10</v>
       </c>
@@ -5201,7 +5451,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
@@ -5228,7 +5478,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="17">
@@ -5296,14 +5546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B29" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5314,7 +5564,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:S23 E25:S26" xr:uid="{B69FD812-A7D8-4568-987A-B5606766DBEF}">
       <formula1>"0,1,2"</formula1>
@@ -5334,63 +5584,63 @@
       <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5411,7 +5661,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5432,7 +5682,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C21)</f>
@@ -5455,35 +5705,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -5533,7 +5783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -5555,7 +5805,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
@@ -5581,7 +5831,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
@@ -5607,7 +5857,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
@@ -5633,7 +5883,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
@@ -5659,7 +5909,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
@@ -5681,7 +5931,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
@@ -5707,7 +5957,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
         <v>28</v>
       </c>
@@ -5733,7 +5983,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -5755,7 +6005,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
@@ -5781,7 +6031,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
@@ -5807,7 +6057,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="29" t="s">
         <v>29</v>
       </c>
@@ -5833,7 +6083,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
@@ -5859,7 +6109,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="20">
@@ -5927,17 +6177,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5948,7 +6198,7 @@
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:S16 E18:S21 E11:S11 E13:S13" xr:uid="{C2596A1F-DB3A-400C-9850-C11A35C9833C}">
       <formula1>"0,1,2"</formula1>
@@ -5968,63 +6218,63 @@
       <selection activeCell="B38" sqref="B38:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6045,7 +6295,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6066,7 +6316,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C32)</f>
@@ -6089,35 +6339,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -6167,7 +6417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
@@ -6189,7 +6439,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
@@ -6216,7 +6466,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
@@ -6243,7 +6493,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>162</v>
       </c>
@@ -6265,7 +6515,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
         <v>163</v>
       </c>
@@ -6292,7 +6542,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
         <v>164</v>
       </c>
@@ -6319,8 +6569,8 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="31" t="s">
         <v>165</v>
       </c>
       <c r="C15" s="13">
@@ -6346,7 +6596,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>41</v>
       </c>
@@ -6368,7 +6618,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
         <v>56</v>
       </c>
@@ -6395,7 +6645,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
@@ -6422,7 +6672,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B19" s="30" t="s">
         <v>129</v>
       </c>
@@ -6449,7 +6699,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="29" t="s">
         <v>130</v>
       </c>
@@ -6476,7 +6726,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
@@ -6498,7 +6748,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
         <v>51</v>
       </c>
@@ -6525,7 +6775,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="29" t="s">
         <v>50</v>
       </c>
@@ -6552,7 +6802,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="29" t="s">
         <v>49</v>
       </c>
@@ -6579,7 +6829,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="29" t="s">
         <v>48</v>
       </c>
@@ -6606,7 +6856,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="29" t="s">
         <v>47</v>
       </c>
@@ -6633,7 +6883,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="29" t="s">
         <v>46</v>
       </c>
@@ -6660,7 +6910,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="29" t="s">
         <v>44</v>
       </c>
@@ -6687,7 +6937,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
@@ -6714,7 +6964,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="29" t="s">
         <v>53</v>
       </c>
@@ -6741,7 +6991,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B31" s="19" t="s">
         <v>42</v>
       </c>
@@ -6763,7 +7013,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="29" t="s">
         <v>58</v>
       </c>
@@ -6790,7 +7040,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="29" t="s">
         <v>57</v>
       </c>
@@ -6817,7 +7067,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
         <v>59</v>
       </c>
@@ -6844,7 +7094,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B35" s="29" t="s">
         <v>60</v>
       </c>
@@ -6871,82 +7121,82 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
       <c r="D36" s="20">
-        <f>SUM(D10:D32)</f>
+        <f t="shared" ref="D36:S36" si="3">SUM(D10:D32)</f>
         <v>100</v>
       </c>
       <c r="E36" s="20">
-        <f>SUM(E10:E32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="20">
-        <f>SUM(F10:F32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G36" s="20">
-        <f>SUM(G10:G32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="20">
-        <f>SUM(H10:H32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="20">
-        <f>SUM(I10:I32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="20">
-        <f>SUM(J10:J32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="20">
-        <f>SUM(K10:K32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="20">
-        <f>SUM(L10:L32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="20">
-        <f>SUM(M10:M32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="20">
-        <f>SUM(N10:N32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="20">
-        <f>SUM(O10:O32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="20">
-        <f>SUM(P10:P32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36" s="20">
-        <f>SUM(Q10:Q32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="20">
-        <f>SUM(R10:R32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S36" s="20">
-        <f>SUM(S10:S32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B38" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6972,67 +7222,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87AAC42-D3CB-409A-96C7-2F7D6285C82B}">
   <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B54" sqref="B54:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7053,7 +7303,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7074,7 +7324,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C10:C50)</f>
@@ -7097,35 +7347,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -7175,7 +7425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -7197,7 +7447,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
@@ -7224,7 +7474,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="29" t="s">
         <v>62</v>
       </c>
@@ -7251,7 +7501,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
         <v>63</v>
       </c>
@@ -7278,7 +7528,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="29" t="s">
         <v>157</v>
       </c>
@@ -7305,7 +7555,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
         <v>158</v>
       </c>
@@ -7332,7 +7582,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="29" t="s">
         <v>159</v>
       </c>
@@ -7359,7 +7609,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
         <v>152</v>
       </c>
@@ -7386,7 +7636,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -7408,7 +7658,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
@@ -7435,7 +7685,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
@@ -7462,7 +7712,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B20" s="30" t="s">
         <v>67</v>
       </c>
@@ -7489,7 +7739,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -7516,7 +7766,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B22" s="30" t="s">
         <v>69</v>
       </c>
@@ -7543,7 +7793,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
@@ -7570,7 +7820,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>71</v>
       </c>
@@ -7592,7 +7842,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="29" t="s">
         <v>72</v>
       </c>
@@ -7619,7 +7869,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
@@ -7646,7 +7896,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
@@ -7673,7 +7923,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="29" t="s">
         <v>96</v>
       </c>
@@ -7700,7 +7950,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="29" t="s">
         <v>75</v>
       </c>
@@ -7727,7 +7977,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="29" t="s">
         <v>76</v>
       </c>
@@ -7754,7 +8004,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B31" s="19" t="s">
         <v>77</v>
       </c>
@@ -7781,7 +8031,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
@@ -7808,7 +8058,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="29" t="s">
         <v>78</v>
       </c>
@@ -7835,7 +8085,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
         <v>80</v>
       </c>
@@ -7862,7 +8112,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B35" s="29" t="s">
         <v>81</v>
       </c>
@@ -7889,7 +8139,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B36" s="19" t="s">
         <v>82</v>
       </c>
@@ -7911,7 +8161,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B37" s="29" t="s">
         <v>85</v>
       </c>
@@ -7938,7 +8188,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B38" s="29" t="s">
         <v>86</v>
       </c>
@@ -7965,7 +8215,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B39" s="29" t="s">
         <v>87</v>
       </c>
@@ -7992,7 +8242,7 @@
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B40" s="29" t="s">
         <v>88</v>
       </c>
@@ -8019,7 +8269,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B41" s="19" t="s">
         <v>83</v>
       </c>
@@ -8041,7 +8291,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B42" s="29" t="s">
         <v>89</v>
       </c>
@@ -8068,7 +8318,7 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B43" s="29" t="s">
         <v>90</v>
       </c>
@@ -8095,7 +8345,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B44" s="29" t="s">
         <v>160</v>
       </c>
@@ -8122,7 +8372,7 @@
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B45" s="29" t="s">
         <v>91</v>
       </c>
@@ -8149,7 +8399,7 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B46" s="19" t="s">
         <v>84</v>
       </c>
@@ -8171,7 +8421,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B47" s="29" t="s">
         <v>92</v>
       </c>
@@ -8198,7 +8448,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B48" s="29" t="s">
         <v>93</v>
       </c>
@@ -8225,7 +8475,7 @@
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B49" s="29" t="s">
         <v>94</v>
       </c>
@@ -8252,7 +8502,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B50" s="29" t="s">
         <v>95</v>
       </c>
@@ -8279,8 +8529,8 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B51" s="31" t="s">
         <v>168</v>
       </c>
       <c r="C51" s="13">
@@ -8306,7 +8556,7 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
       <c r="D52" s="20">
@@ -8314,74 +8564,74 @@
         <v>100</v>
       </c>
       <c r="E52" s="20">
-        <f>SUM(E23:E42)</f>
+        <f t="shared" ref="E52:S52" si="3">SUM(E23:E42)</f>
         <v>0</v>
       </c>
       <c r="F52" s="20">
-        <f>SUM(F23:F42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G52" s="20">
-        <f>SUM(G23:G42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="20">
-        <f>SUM(H23:H42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="20">
-        <f>SUM(I23:I42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52" s="20">
-        <f>SUM(J23:J42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K52" s="20">
-        <f>SUM(K23:K42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <f>SUM(L23:L42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M52" s="20">
-        <f>SUM(M23:M42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N52" s="20">
-        <f>SUM(N23:N42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52" s="20">
-        <f>SUM(O23:O42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P52" s="20">
-        <f>SUM(P23:P42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q52" s="20">
-        <f>SUM(Q23:Q42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R52" s="20">
-        <f>SUM(R23:R42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S52" s="20">
-        <f>SUM(S23:S42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B54" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8411,63 +8661,63 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -8488,7 +8738,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8509,7 +8759,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C51)</f>
@@ -8532,35 +8782,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -8610,7 +8860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>99</v>
       </c>
@@ -8632,7 +8882,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
@@ -8659,7 +8909,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="29" t="s">
         <v>100</v>
       </c>
@@ -8686,7 +8936,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
         <v>101</v>
       </c>
@@ -8713,7 +8963,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
         <v>102</v>
       </c>
@@ -8740,7 +8990,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
         <v>103</v>
       </c>
@@ -8767,7 +9017,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B15" s="30" t="s">
         <v>104</v>
       </c>
@@ -8794,7 +9044,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>105</v>
       </c>
@@ -8816,7 +9066,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
         <v>61</v>
       </c>
@@ -8843,7 +9093,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="29" t="s">
         <v>106</v>
       </c>
@@ -8870,7 +9120,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B19" s="30" t="s">
         <v>107</v>
       </c>
@@ -8897,7 +9147,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B20" s="30" t="s">
         <v>108</v>
       </c>
@@ -8924,7 +9174,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="29" t="s">
         <v>109</v>
       </c>
@@ -8951,7 +9201,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B22" s="30" t="s">
         <v>110</v>
       </c>
@@ -8978,7 +9228,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="29" t="s">
         <v>111</v>
       </c>
@@ -9005,7 +9255,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>112</v>
       </c>
@@ -9027,7 +9277,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="29" t="s">
         <v>61</v>
       </c>
@@ -9054,7 +9304,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B26" s="19" t="s">
         <v>113</v>
       </c>
@@ -9076,7 +9326,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="29" t="s">
         <v>114</v>
       </c>
@@ -9103,7 +9353,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="29" t="s">
         <v>115</v>
       </c>
@@ -9130,7 +9380,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B29" s="19" t="s">
         <v>116</v>
       </c>
@@ -9152,7 +9402,7 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="29" t="s">
         <v>114</v>
       </c>
@@ -9179,7 +9429,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="29" t="s">
         <v>161</v>
       </c>
@@ -9206,7 +9456,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B32" s="19" t="s">
         <v>117</v>
       </c>
@@ -9228,7 +9478,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="29" t="s">
         <v>114</v>
       </c>
@@ -9255,7 +9505,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
         <v>118</v>
       </c>
@@ -9282,7 +9532,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
@@ -9304,7 +9554,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B36" s="29" t="s">
         <v>114</v>
       </c>
@@ -9331,7 +9581,7 @@
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B37" s="29" t="s">
         <v>161</v>
       </c>
@@ -9358,7 +9608,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B38" s="29" t="s">
         <v>120</v>
       </c>
@@ -9385,7 +9635,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B39" s="19" t="s">
         <v>153</v>
       </c>
@@ -9407,7 +9657,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B40" s="29" t="s">
         <v>154</v>
       </c>
@@ -9434,7 +9684,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B41" s="19" t="s">
         <v>121</v>
       </c>
@@ -9456,7 +9706,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B42" s="29" t="s">
         <v>114</v>
       </c>
@@ -9483,7 +9733,7 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
@@ -9510,7 +9760,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B44" s="19" t="s">
         <v>123</v>
       </c>
@@ -9532,7 +9782,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B45" s="29" t="s">
         <v>114</v>
       </c>
@@ -9559,7 +9809,7 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B46" s="29" t="s">
         <v>125</v>
       </c>
@@ -9586,7 +9836,7 @@
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B47" s="29" t="s">
         <v>124</v>
       </c>
@@ -9613,7 +9863,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B48" s="19" t="s">
         <v>126</v>
       </c>
@@ -9635,7 +9885,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B49" s="29" t="s">
         <v>114</v>
       </c>
@@ -9662,7 +9912,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B50" s="29" t="s">
         <v>127</v>
       </c>
@@ -9689,7 +9939,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B51" s="29" t="s">
         <v>128</v>
       </c>
@@ -9716,7 +9966,7 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
       <c r="D52" s="20">
@@ -9784,14 +10034,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B54" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9817,67 +10067,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786FEEB4-0814-4B48-93FE-8EC2D2A6D310}">
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9898,7 +10148,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9919,7 +10169,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C22)</f>
@@ -9942,35 +10192,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -10020,7 +10270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>131</v>
       </c>
@@ -10042,7 +10292,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
         <v>132</v>
       </c>
@@ -10069,7 +10319,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
         <v>133</v>
       </c>
@@ -10091,7 +10341,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
         <v>134</v>
       </c>
@@ -10118,7 +10368,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>135</v>
       </c>
@@ -10140,7 +10390,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
@@ -10167,7 +10417,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>137</v>
       </c>
@@ -10189,7 +10439,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
         <v>138</v>
       </c>
@@ -10216,7 +10466,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
         <v>140</v>
       </c>
@@ -10238,7 +10488,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="29" t="s">
         <v>141</v>
       </c>
@@ -10265,7 +10515,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="29" t="s">
         <v>142</v>
       </c>
@@ -10292,7 +10542,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>143</v>
       </c>
@@ -10314,7 +10564,7 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="29" t="s">
         <v>144</v>
       </c>
@@ -10341,7 +10591,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
         <v>145</v>
       </c>
@@ -10368,7 +10618,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B23" s="19" t="s">
         <v>166</v>
       </c>
@@ -10390,7 +10640,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -10417,8 +10667,8 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="13">
@@ -10444,8 +10694,8 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C26" s="13">
@@ -10471,7 +10721,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="20">
@@ -10479,74 +10729,74 @@
         <v>100</v>
       </c>
       <c r="E27" s="20">
-        <f>SUM(E13:E16)</f>
+        <f t="shared" ref="E27:S27" si="0">SUM(E13:E16)</f>
         <v>0</v>
       </c>
       <c r="F27" s="20">
-        <f>SUM(F13:F16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="20">
-        <f>SUM(G13:G16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="20">
-        <f>SUM(H13:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="20">
-        <f>SUM(I13:I16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="20">
-        <f>SUM(J13:J16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="20">
-        <f>SUM(K13:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="20">
-        <f>SUM(L13:L16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="20">
-        <f>SUM(M13:M16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="20">
-        <f>SUM(N13:N16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="20">
-        <f>SUM(O13:O16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="20">
-        <f>SUM(P13:P16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="20">
-        <f>SUM(Q13:Q16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="20">
-        <f>SUM(R13:R16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S27" s="20">
-        <f>SUM(S13:S16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10572,67 +10822,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF588F-F94F-49F5-946C-16DEDC0DBC41}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10653,7 +10903,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10674,7 +10924,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C13)</f>
@@ -10697,35 +10947,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -10775,7 +11025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
         <v>147</v>
       </c>
@@ -10802,7 +11052,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="29" t="s">
         <v>148</v>
       </c>
@@ -10829,7 +11079,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
         <v>149</v>
       </c>
@@ -10856,7 +11106,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
         <v>150</v>
       </c>
@@ -10883,7 +11133,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="29" t="s">
         <v>151</v>
       </c>
@@ -10910,7 +11160,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="20">
@@ -10978,14 +11228,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11005,4 +11255,470 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B8FF39-F3AF-45F1-8401-6C260CB8F914}">
+  <dimension ref="B2:T19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.69140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="18">
+        <f>SUM(C9:C14)</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12">
+        <v>6</v>
+      </c>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12">
+        <v>8</v>
+      </c>
+      <c r="M8" s="12">
+        <v>9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>10</v>
+      </c>
+      <c r="O8" s="12">
+        <v>11</v>
+      </c>
+      <c r="P8" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>13</v>
+      </c>
+      <c r="R8" s="12">
+        <v>14</v>
+      </c>
+      <c r="S8" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <f>C9</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10" si="0">C10</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:D12" si="1">C11</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <f>C12</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16">
+        <f>C13</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="13">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16">
+        <f>C14</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20">
+        <f>SUM(D9:D14)</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="20">
+        <f>SUM(E9:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <f>SUM(F9:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f>SUM(G9:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <f>SUM(H9:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <f>SUM(I9:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <f>SUM(J9:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <f>SUM(K9:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <f>SUM(L9:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <f>SUM(M9:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <f>SUM(N9:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <f>SUM(O9:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <f>SUM(P9:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <f>SUM(Q9:Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="20">
+        <f>SUM(R9:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="20">
+        <f>SUM(S9:S11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:S10 E11:S12" xr:uid="{DF367546-0B27-46FE-92C5-A34CBA13274E}">
+      <formula1>"0,1,2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/scoring-template.xlsx
+++ b/scoring-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hollow-knight-js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\hollow-knight\hollow-knight-js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3DBBE1-4675-4165-975D-695B04122017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B87889-99FE-47E1-9100-C1FB5800BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="8" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Modal" sheetId="3" r:id="rId3"/>
     <sheet name="Game Environment" sheetId="7" r:id="rId4"/>
     <sheet name="Character" sheetId="8" r:id="rId5"/>
-    <sheet name="Enemy" sheetId="10" r:id="rId6"/>
+    <sheet name="Enemy &amp; Barrel" sheetId="10" r:id="rId6"/>
     <sheet name="Pause &amp; Player Bar" sheetId="11" r:id="rId7"/>
     <sheet name="Credit" sheetId="12" r:id="rId8"/>
     <sheet name="Prototype" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,10 +90,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{4514AF01-7E8F-4C1D-AC88-7E521B8F31F8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{96DC894D-359C-4A93-B473-EFC593717AA9}">
@@ -124,12 +134,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{897B24F7-839A-412D-8359-372DB9751EB0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{A34E64BE-BEF1-42A1-9FCB-475E2BE1F6BA}">
@@ -469,10 +489,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{37940635-88FF-4125-B9A4-34C7F9E3EBD2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{A6913EE4-0BAE-4289-8345-ED31A52DB279}">
@@ -502,12 +532,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{074E87B6-7FAC-42E0-8A7C-A8F306C30F53}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CD81AFFD-1466-4BA3-97E2-1E689650982D}">
@@ -741,10 +781,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{AA75CCD3-8C2A-43CB-AC15-18B07EA9966D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{3B1D7A88-477C-40CC-8591-2E350AC7880B}">
@@ -774,12 +824,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{BD4AE21C-5745-4F51-9D0F-E7D68617414D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{CF26B1E0-EB13-4E45-B965-93D0D4361965}">
@@ -1001,7 +1061,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{27077109-46B1-4AD7-BC01-97FB4D77E77A}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{6DE1A4C2-E4E5-4DF7-AA2C-D04823C58EC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- saat player jalan, background akan ikut berjalan dengan kecepatan yang berbeda</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{9F3E74A3-5A0E-4C85-B247-AEE8E8A755BB}">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{CB447C4A-B953-4E2E-BCEA-8AA40840F443}">
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{CC915B41-C414-4097-B9B3-4634ABBCD8B0}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1" shapeId="0" xr:uid="{6697B746-AC37-4597-B053-CBF44CB54DA4}">
+    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{6BC42EAF-E58A-45A7-B2B4-C0D769B6D5FF}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{8752269B-2D5B-46CC-94D9-D33CAE5F1758}">
+    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{002388AA-CED8-4877-A0D6-6E91A2BD05AF}">
       <text>
         <r>
           <rPr>
@@ -1111,10 +1195,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{64177324-8F3A-42B1-BCAC-3084037D53C9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{35EA2246-2D77-43CB-882A-B37DC21E4549}">
@@ -1144,12 +1238,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{F18F38FC-89B0-451C-89C0-F586AE97AD82}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{8083EBD2-879B-4795-9CE9-8136957CB1F8}">
@@ -1548,14 +1652,25 @@
     <author>tc={3A99FF84-AC4D-43E8-877A-6BDD1EC7B3FB}</author>
     <author>TinTin</author>
     <author>tc={C324183A-839C-469E-9697-60E49EA3C890}</author>
+    <author>TinTin Winata</author>
   </authors>
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3A99FF84-AC4D-43E8-877A-6BDD1EC7B3FB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{298C2853-BC95-4A47-9C01-8CD3CC4F9D76}">
@@ -1585,12 +1700,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{C324183A-839C-469E-9697-60E49EA3C890}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5C2E5588-416D-4AB4-BFA8-B29CC2AD6F7E}">
@@ -1976,6 +2101,80 @@
           </rPr>
           <t xml:space="preserve">
 - start credit scene (panggill method nya / console log dihitung benar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="3" shapeId="0" xr:uid="{9DA00612-FF95-4D86-8DBA-B1C6CEC83E24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin Winata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Spawn diatas lalu jalan kebawah
+- Kena player ke hit
+- Barrel Destroyed kalau sampai bawah</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="1" shapeId="0" xr:uid="{48EE5A23-D6EF-44DB-A712-4570C0D643D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Terdapat particle jika barrel destroyed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="1" shapeId="0" xr:uid="{A5C0DB48-7138-404F-867D-F6ECFFBAF25E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Terdapat sound jika barrel destroyed</t>
         </r>
       </text>
     </comment>
@@ -1993,10 +2192,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{371C81CD-2583-4077-AE9D-543E242844C3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{12A22070-FB96-49C8-B622-A6267A98BC24}">
@@ -2026,12 +2235,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{430EFBEF-0AE2-4995-9727-BE06994799AB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B19" authorId="1" shapeId="0" xr:uid="{83438199-738D-4F30-9EE9-4CDF9293C6EB}">
@@ -2193,10 +2412,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{EBB29502-A7AA-4340-BA91-A222C4FF868B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{6B82EE39-6505-478D-AC44-2BBF035AB592}">
@@ -2226,12 +2455,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{6062114B-32F6-47FD-BB20-297F4E9135E1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B9" authorId="1" shapeId="0" xr:uid="{294159D9-66CB-4D72-B3E6-04253765041F}">
@@ -2368,10 +2607,20 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{36DEB9D7-DCE6-4FE1-8F25-2F68E66C291F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Total Weight</t>
+        </r>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{437A8741-A95B-4751-894E-FE133FD6B175}">
@@ -2401,12 +2650,22 @@
     </comment>
     <comment ref="C7" authorId="2" shapeId="0" xr:uid="{67FA78BB-512D-45B0-AEF7-26E503428221}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 -&gt; Easy
 2 -&gt; Medium
 3 -&gt; Hard</t>
+        </r>
       </text>
     </comment>
     <comment ref="B9" authorId="1" shapeId="0" xr:uid="{8966F740-4641-4F02-8D1D-AFAED4672268}">
@@ -2560,7 +2819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
   <si>
     <t>Grade</t>
   </si>
@@ -3094,19 +3353,41 @@
   </si>
   <si>
     <t>Completeness</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Barrel Logic</t>
+  </si>
+  <si>
+    <t>Barrel Particle</t>
+  </si>
+  <si>
+    <t>Barrel Sound</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3365,129 +3646,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3954,42 +4241,42 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="10.69140625" style="6" customWidth="1"/>
-    <col min="5" max="7" width="15.69140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.69140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.15234375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="18.84375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.84375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.15234375" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:13" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3998,62 +4285,62 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>171</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="14">
         <v>20</v>
       </c>
@@ -4080,17 +4367,17 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="11">
         <f>IF(ISBLANK(M8), ROUNDUP(SUM(E8:L8), 0), 0)</f>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11" t="str">
         <f xml:space="preserve"> IF(C8 &gt;= 85, "A", IF(C8&gt;= 75, "B", IF(C8&gt;=65,"C", IF(C8&gt;=55, "D", "E"))))</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E8" s="15">
         <f>HLOOKUP(B8,Page!D$8:S$27,20,FALSE) /Page!$C$6 *$E$7</f>
@@ -4102,15 +4389,15 @@
       </c>
       <c r="G8" s="15">
         <f>HLOOKUP(B8,'Game Environment'!D$8:S$36,29,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>10</v>
+        <v>0.26548672566371678</v>
       </c>
       <c r="H8" s="15">
         <f>HLOOKUP(B8,Character!D$8:S$52,45,FALSE) /Character!$C$6 *$H$7</f>
         <v>20</v>
       </c>
       <c r="I8" s="15">
-        <f>HLOOKUP(B8,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
-        <v>15</v>
+        <f>HLOOKUP(B8,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <f>HLOOKUP(B8,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
@@ -4126,12 +4413,12 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <f>IF(ISBLANK(M9), ROUNDUP(SUM(E9:K9), 0), 0)</f>
+        <f t="shared" ref="C9:C23" si="0">IF(ISBLANK(M9), ROUNDUP(SUM(E9:K9), 0), 0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="11" t="str">
@@ -4155,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>HLOOKUP(B9,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B9,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J9" s="15">
@@ -4172,16 +4459,16 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <f>IF(ISBLANK(M10), ROUNDUP(SUM(E10:K10), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f t="shared" ref="D10:D23" si="0" xml:space="preserve"> IF(C10 &gt;= 85, "A", IF(C10&gt;= 75, "B", IF(C10&gt;=65,"C", IF(C10&gt;=55, "D", "E"))))</f>
+        <f t="shared" ref="D10:D23" si="1" xml:space="preserve"> IF(C10 &gt;= 85, "A", IF(C10&gt;= 75, "B", IF(C10&gt;=65,"C", IF(C10&gt;=55, "D", "E"))))</f>
         <v>E</v>
       </c>
       <c r="E10" s="15">
@@ -4201,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f>HLOOKUP(B10,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B10,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
@@ -4218,16 +4505,16 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11">
-        <f>IF(ISBLANK(M11), ROUNDUP(SUM(E11:K11), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E11" s="15">
@@ -4247,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="15">
-        <f>HLOOKUP(B11,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B11,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J11" s="15">
@@ -4264,16 +4551,16 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>4</v>
       </c>
       <c r="C12" s="11">
-        <f>IF(ISBLANK(M12), ROUNDUP(SUM(E12:K12), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E12" s="15">
@@ -4293,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="15">
-        <f>HLOOKUP(B12,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B12,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J12" s="15">
@@ -4310,16 +4597,16 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>5</v>
       </c>
       <c r="C13" s="11">
-        <f>IF(ISBLANK(M13), ROUNDUP(SUM(E13:K13), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E13" s="15">
@@ -4339,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <f>HLOOKUP(B13,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B13,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J13" s="15">
@@ -4356,16 +4643,16 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>6</v>
       </c>
       <c r="C14" s="11">
-        <f>IF(ISBLANK(M14), ROUNDUP(SUM(E14:K14), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E14" s="15">
@@ -4385,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f>HLOOKUP(B14,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B14,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J14" s="15">
@@ -4402,16 +4689,16 @@
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>7</v>
       </c>
       <c r="C15" s="11">
-        <f>IF(ISBLANK(M15), ROUNDUP(SUM(E15:K15), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E15" s="15">
@@ -4431,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <f>HLOOKUP(B15,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B15,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J15" s="15">
@@ -4448,16 +4735,16 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>8</v>
       </c>
       <c r="C16" s="11">
-        <f>IF(ISBLANK(M16), ROUNDUP(SUM(E16:K16), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E16" s="15">
@@ -4477,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="15">
-        <f>HLOOKUP(B16,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B16,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J16" s="15">
@@ -4494,16 +4781,16 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>9</v>
       </c>
       <c r="C17" s="11">
-        <f>IF(ISBLANK(M17), ROUNDUP(SUM(E17:K17), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E17" s="15">
@@ -4523,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="15">
-        <f>HLOOKUP(B17,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B17,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J17" s="15">
@@ -4540,16 +4827,16 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>10</v>
       </c>
       <c r="C18" s="11">
-        <f>IF(ISBLANK(M18), ROUNDUP(SUM(E18:K18), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E18" s="15">
@@ -4569,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <f>HLOOKUP(B18,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B18,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J18" s="15">
@@ -4586,16 +4873,16 @@
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>11</v>
       </c>
       <c r="C19" s="11">
-        <f>IF(ISBLANK(M19), ROUNDUP(SUM(E19:K19), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E19" s="15">
@@ -4615,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="15">
-        <f>HLOOKUP(B19,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B19,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J19" s="15">
@@ -4632,16 +4919,16 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>12</v>
       </c>
       <c r="C20" s="11">
-        <f>IF(ISBLANK(M20), ROUNDUP(SUM(E20:K20), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E20" s="15">
@@ -4661,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f>HLOOKUP(B20,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B20,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J20" s="15">
@@ -4678,16 +4965,16 @@
       </c>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>13</v>
       </c>
       <c r="C21" s="11">
-        <f>IF(ISBLANK(M21), ROUNDUP(SUM(E21:K21), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E21" s="15">
@@ -4707,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="15">
-        <f>HLOOKUP(B21,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B21,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J21" s="15">
@@ -4724,16 +5011,16 @@
       </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>14</v>
       </c>
       <c r="C22" s="11">
-        <f>IF(ISBLANK(M22), ROUNDUP(SUM(E22:K22), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E22" s="15">
@@ -4753,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f>HLOOKUP(B22,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B22,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J22" s="15">
@@ -4770,16 +5057,16 @@
       </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>15</v>
       </c>
       <c r="C23" s="11">
-        <f>IF(ISBLANK(M23), ROUNDUP(SUM(E23:K23), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="E23" s="15">
@@ -4799,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="15">
-        <f>HLOOKUP(B23,Enemy!D$8:S$52,45,FALSE) /Enemy!$C$6 *$I$7</f>
+        <f>HLOOKUP(B23,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J23" s="15">
@@ -4816,21 +5103,16 @@
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B7"/>
@@ -4839,6 +5121,11 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:K23">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -4864,96 +5151,96 @@
       <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.15234375" style="1" customWidth="1"/>
-    <col min="5" max="19" width="6.69140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="6.69140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="19" width="6.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-    </row>
-    <row r="3" spans="2:19" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="18">
         <f>SUM(C10:C26)</f>
         <v>100</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -5003,7 +5290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
@@ -5029,7 +5316,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
@@ -5056,7 +5343,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
@@ -5083,7 +5370,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
@@ -5110,7 +5397,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
@@ -5137,7 +5424,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>15</v>
       </c>
@@ -5164,7 +5451,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
@@ -5191,7 +5478,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -5218,7 +5505,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
@@ -5245,7 +5532,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
@@ -5267,7 +5554,7 @@
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>38</v>
       </c>
@@ -5294,7 +5581,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>39</v>
       </c>
@@ -5321,7 +5608,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
@@ -5343,7 +5630,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>34</v>
       </c>
@@ -5370,7 +5657,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>156</v>
       </c>
@@ -5397,7 +5684,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
@@ -5424,7 +5711,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5738,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
@@ -5478,7 +5765,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="17">
@@ -5546,14 +5833,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5564,7 +5851,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:S23 E25:S26" xr:uid="{B69FD812-A7D8-4568-987A-B5606766DBEF}">
       <formula1>"0,1,2"</formula1>
@@ -5584,63 +5871,63 @@
       <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5661,7 +5948,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5682,7 +5969,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C21)</f>
@@ -5705,35 +5992,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -5783,7 +6070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -5805,7 +6092,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +6118,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
@@ -5857,7 +6144,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
@@ -5883,7 +6170,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
@@ -5909,7 +6196,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
@@ -5931,7 +6218,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
@@ -5957,7 +6244,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>28</v>
       </c>
@@ -5983,7 +6270,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -6005,7 +6292,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
@@ -6031,7 +6318,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
@@ -6057,7 +6344,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>29</v>
       </c>
@@ -6083,7 +6370,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
@@ -6109,7 +6396,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="20">
@@ -6177,17 +6464,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6198,7 +6485,7 @@
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:S16 E18:S21 E11:S11 E13:S13" xr:uid="{C2596A1F-DB3A-400C-9850-C11A35C9833C}">
       <formula1>"0,1,2"</formula1>
@@ -6212,69 +6499,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C97552-A148-4D56-9BA3-5CE1794ECD23}">
-  <dimension ref="B2:T38"/>
+  <dimension ref="B2:T39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6295,7 +6582,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6316,11 +6603,11 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
-        <f>SUM(C9:C32)</f>
-        <v>100</v>
+        <f>SUM(C9:C36)</f>
+        <v>113</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -6339,35 +6626,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -6417,7 +6704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
@@ -6439,7 +6726,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
@@ -6466,7 +6753,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
@@ -6493,7 +6780,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>162</v>
       </c>
@@ -6515,7 +6802,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>163</v>
       </c>
@@ -6542,7 +6829,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>164</v>
       </c>
@@ -6569,7 +6856,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>165</v>
       </c>
@@ -6596,7 +6883,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>41</v>
       </c>
@@ -6618,7 +6905,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>56</v>
       </c>
@@ -6645,7 +6932,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
@@ -6672,16 +6959,16 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="16">
         <f>C19</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -6699,16 +6986,16 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="16">
         <f>C20</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -6726,64 +7013,64 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="13">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16">
+        <f>C21</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="29" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="13">
-        <v>3</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" ref="D22:D30" si="2">C22</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="29" t="s">
-        <v>50</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D23:D39" si="2">C23</f>
         <v>3</v>
       </c>
       <c r="E23" s="16"/>
@@ -6802,9 +7089,9 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
@@ -6829,9 +7116,9 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
@@ -6856,9 +7143,9 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
@@ -6883,16 +7170,16 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -6910,16 +7197,16 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -6937,9 +7224,9 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
@@ -6964,16 +7251,16 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30" s="16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -6991,65 +7278,65 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B32" s="29" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C33" s="13">
         <v>3</v>
-      </c>
-      <c r="D32" s="16">
-        <f>C32</f>
-        <v>3</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="13">
-        <v>5</v>
       </c>
       <c r="D33" s="16">
         <f>C33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -7067,16 +7354,16 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="16">
         <f>C34</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -7094,9 +7381,9 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="13">
         <v>3</v>
@@ -7121,86 +7408,112 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="20">
-        <f t="shared" ref="D36:S36" si="3">SUM(D10:D32)</f>
-        <v>100</v>
-      </c>
-      <c r="E36" s="20">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16">
+        <f>C36</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="20">
+        <f>SUM(D11:D36)</f>
+        <v>108</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" ref="D37:S37" si="3">SUM(E11:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" s="20">
+      <c r="G37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="20">
+      <c r="H37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H36" s="20">
+      <c r="I37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36" s="20">
+      <c r="J37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="20">
+      <c r="K37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="20">
+      <c r="L37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="20">
+      <c r="M37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M36" s="20">
+      <c r="N37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N36" s="20">
+      <c r="O37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O36" s="20">
+      <c r="P37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P36" s="20">
+      <c r="Q37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="R37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R36" s="20">
+      <c r="S37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B38" s="37" t="s">
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B38:F38"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -7208,7 +7521,7 @@
     <mergeCell ref="D7:S7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E18:S18 E22:S30 E32:S36 E20:S20 E15:S15" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E18:S18 E20:S21 E15:S15 E23:S31 E33:S37" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7226,63 +7539,63 @@
       <selection activeCell="B54" sqref="B54:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7303,7 +7616,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7324,7 +7637,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C10:C50)</f>
@@ -7347,35 +7660,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -7425,7 +7738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -7447,7 +7760,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
@@ -7474,7 +7787,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>62</v>
       </c>
@@ -7501,7 +7814,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>63</v>
       </c>
@@ -7528,7 +7841,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>157</v>
       </c>
@@ -7555,7 +7868,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>158</v>
       </c>
@@ -7582,7 +7895,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>159</v>
       </c>
@@ -7609,7 +7922,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>152</v>
       </c>
@@ -7636,7 +7949,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -7658,7 +7971,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
@@ -7685,7 +7998,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
@@ -7712,7 +8025,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>67</v>
       </c>
@@ -7739,7 +8052,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -7766,7 +8079,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>69</v>
       </c>
@@ -7793,7 +8106,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
@@ -7820,7 +8133,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>71</v>
       </c>
@@ -7842,7 +8155,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>72</v>
       </c>
@@ -7869,7 +8182,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
@@ -7896,7 +8209,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
@@ -7923,7 +8236,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>96</v>
       </c>
@@ -7950,7 +8263,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>75</v>
       </c>
@@ -7977,7 +8290,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>76</v>
       </c>
@@ -8004,7 +8317,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>77</v>
       </c>
@@ -8031,7 +8344,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
@@ -8058,7 +8371,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>78</v>
       </c>
@@ -8085,7 +8398,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>80</v>
       </c>
@@ -8112,7 +8425,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>81</v>
       </c>
@@ -8139,7 +8452,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>82</v>
       </c>
@@ -8161,7 +8474,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>85</v>
       </c>
@@ -8188,7 +8501,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>86</v>
       </c>
@@ -8215,7 +8528,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>87</v>
       </c>
@@ -8242,7 +8555,7 @@
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>88</v>
       </c>
@@ -8269,7 +8582,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>83</v>
       </c>
@@ -8291,7 +8604,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>89</v>
       </c>
@@ -8318,7 +8631,7 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>90</v>
       </c>
@@ -8345,7 +8658,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>160</v>
       </c>
@@ -8372,7 +8685,7 @@
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>91</v>
       </c>
@@ -8399,7 +8712,7 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>84</v>
       </c>
@@ -8421,7 +8734,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>92</v>
       </c>
@@ -8448,7 +8761,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>93</v>
       </c>
@@ -8475,7 +8788,7 @@
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>94</v>
       </c>
@@ -8502,7 +8815,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>95</v>
       </c>
@@ -8529,7 +8842,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>168</v>
       </c>
@@ -8556,7 +8869,7 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
       <c r="D52" s="20">
@@ -8624,14 +8937,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B54" s="37" t="s">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8655,69 +8968,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250F423-359F-4D10-95FC-95DDE46C12FA}">
-  <dimension ref="B2:T54"/>
+  <dimension ref="B2:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -8738,7 +9051,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8759,10 +9072,10 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
-        <f>SUM(C9:C51)</f>
+        <f>SUM(C9:C55)</f>
         <v>100</v>
       </c>
       <c r="D6" s="9"/>
@@ -8782,35 +9095,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -8860,7 +9173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>99</v>
       </c>
@@ -8882,7 +9195,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
@@ -8909,7 +9222,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>100</v>
       </c>
@@ -8936,7 +9249,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>101</v>
       </c>
@@ -8963,7 +9276,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>102</v>
       </c>
@@ -8990,7 +9303,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>103</v>
       </c>
@@ -9017,7 +9330,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>104</v>
       </c>
@@ -9044,7 +9357,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>105</v>
       </c>
@@ -9066,7 +9379,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>61</v>
       </c>
@@ -9093,7 +9406,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>106</v>
       </c>
@@ -9120,7 +9433,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>107</v>
       </c>
@@ -9147,7 +9460,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>108</v>
       </c>
@@ -9174,7 +9487,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>109</v>
       </c>
@@ -9201,7 +9514,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>110</v>
       </c>
@@ -9228,7 +9541,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>111</v>
       </c>
@@ -9255,7 +9568,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>112</v>
       </c>
@@ -9277,16 +9590,16 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="16">
         <f>C25</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -9304,7 +9617,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>113</v>
       </c>
@@ -9326,7 +9639,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>114</v>
       </c>
@@ -9353,16 +9666,16 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="16">
         <f>C28</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -9380,7 +9693,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>116</v>
       </c>
@@ -9402,7 +9715,7 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>114</v>
       </c>
@@ -9429,16 +9742,16 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="16">
         <f>C31</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -9456,7 +9769,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>117</v>
       </c>
@@ -9478,7 +9791,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>114</v>
       </c>
@@ -9505,16 +9818,16 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="16">
         <f>C34</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -9532,7 +9845,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
@@ -9554,7 +9867,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>114</v>
       </c>
@@ -9581,16 +9894,16 @@
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>161</v>
       </c>
       <c r="C37" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="16">
         <f>C37</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -9608,7 +9921,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>120</v>
       </c>
@@ -9635,7 +9948,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>153</v>
       </c>
@@ -9657,16 +9970,16 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="16">
         <f>C40</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -9684,7 +9997,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>121</v>
       </c>
@@ -9706,16 +10019,16 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="16">
         <f>C42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -9733,16 +10046,16 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="16">
         <f>C43</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -9760,7 +10073,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>123</v>
       </c>
@@ -9782,16 +10095,16 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="16">
         <f>C45</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -9809,16 +10122,16 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C46" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="16">
         <f>C46</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -9836,16 +10149,16 @@
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C47" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="16">
         <f>C47</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -9863,7 +10176,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>126</v>
       </c>
@@ -9885,7 +10198,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>114</v>
       </c>
@@ -9912,7 +10225,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>127</v>
       </c>
@@ -9939,7 +10252,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>128</v>
       </c>
@@ -9966,86 +10279,188 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="20">
-        <f>SUM(D10:D51)</f>
+    <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="13">
+        <v>5</v>
+      </c>
+      <c r="D53" s="16">
+        <f>C53</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="13">
+        <v>3</v>
+      </c>
+      <c r="D54" s="16">
+        <f>C54</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="13">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16">
+        <f>C55</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="20">
+        <f>SUM(D10:D55)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="20">
-        <f t="shared" ref="E52:S52" si="3">SUM(E16:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B54" s="37" t="s">
+      <c r="E56" s="20">
+        <f>SUM(E16:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="20">
+        <f>SUM(F16:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <f>SUM(G16:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <f>SUM(H16:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="20">
+        <f>SUM(I16:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="20">
+        <f>SUM(J16:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="20">
+        <f>SUM(K16:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="20">
+        <f>SUM(L16:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="20">
+        <f>SUM(M16:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="20">
+        <f>SUM(N16:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="20">
+        <f>SUM(O16:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="20">
+        <f>SUM(P16:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="20">
+        <f>SUM(Q16:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="20">
+        <f>SUM(R16:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="20">
+        <f>SUM(S16:S25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B54:F54"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
@@ -10053,7 +10468,7 @@
     <mergeCell ref="D7:S7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E14:S14 E17:S23 E25:S25 E27:S28 E30:S31 E33:S34 E36:S38 E42:S43 E45:S47 E49:S52 E40:S40" xr:uid="{06A5C814-DE98-4B8D-8F1C-49FD61B0B530}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E14:S14 E17:S23 E25:S25 E27:S28 E30:S31 E33:S34 E36:S38 E42:S43 E45:S47 E40:S40 E53:S56 E49:S51" xr:uid="{06A5C814-DE98-4B8D-8F1C-49FD61B0B530}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10067,67 +10482,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786FEEB4-0814-4B48-93FE-8EC2D2A6D310}">
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10148,7 +10563,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10169,7 +10584,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C22)</f>
@@ -10192,35 +10607,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -10270,7 +10685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>131</v>
       </c>
@@ -10292,7 +10707,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>132</v>
       </c>
@@ -10319,7 +10734,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>133</v>
       </c>
@@ -10341,7 +10756,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>134</v>
       </c>
@@ -10368,7 +10783,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>135</v>
       </c>
@@ -10390,7 +10805,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
@@ -10417,7 +10832,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>137</v>
       </c>
@@ -10439,7 +10854,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>138</v>
       </c>
@@ -10466,7 +10881,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>140</v>
       </c>
@@ -10488,7 +10903,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>141</v>
       </c>
@@ -10515,7 +10930,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>142</v>
       </c>
@@ -10542,7 +10957,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>143</v>
       </c>
@@ -10564,7 +10979,7 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>144</v>
       </c>
@@ -10591,7 +11006,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>145</v>
       </c>
@@ -10618,7 +11033,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>166</v>
       </c>
@@ -10640,7 +11055,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -10667,7 +11082,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>169</v>
       </c>
@@ -10694,7 +11109,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>167</v>
       </c>
@@ -10721,7 +11136,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="20">
@@ -10789,14 +11204,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10826,63 +11241,63 @@
       <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10903,7 +11318,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10924,7 +11339,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C13)</f>
@@ -10947,35 +11362,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -11025,7 +11440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>147</v>
       </c>
@@ -11052,7 +11467,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>148</v>
       </c>
@@ -11079,7 +11494,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>149</v>
       </c>
@@ -11106,7 +11521,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>150</v>
       </c>
@@ -11133,7 +11548,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>151</v>
       </c>
@@ -11160,7 +11575,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="20">
@@ -11228,14 +11643,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11261,67 +11676,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B8FF39-F3AF-45F1-8401-6C260CB8F914}">
   <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.69140625" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:20" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11342,7 +11757,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11363,7 +11778,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
         <f>SUM(C9:C14)</f>
@@ -11386,35 +11801,35 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -11464,7 +11879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>172</v>
       </c>
@@ -11491,8 +11906,8 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="13">
@@ -11518,15 +11933,15 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" ref="D11:D12" si="1">C11</f>
+        <f t="shared" ref="D11" si="1">C11</f>
         <v>10</v>
       </c>
       <c r="E11" s="16"/>
@@ -11545,8 +11960,8 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
         <v>175</v>
       </c>
       <c r="C12" s="13">
@@ -11572,7 +11987,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>176</v>
       </c>
@@ -11599,7 +12014,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>177</v>
       </c>
@@ -11626,7 +12041,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:20" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="20">
@@ -11634,83 +12049,83 @@
         <v>100</v>
       </c>
       <c r="E15" s="20">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" ref="E15:S15" si="2">SUM(E9:E11)</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="20">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="20">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="20">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="20">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="20">
-        <f>SUM(L9:L11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="20">
-        <f>SUM(M9:M11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="20">
-        <f>SUM(N9:N11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="20">
-        <f>SUM(O9:O11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="20">
-        <f>SUM(P9:P11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="20">
-        <f>SUM(Q9:Q11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="20">
-        <f>SUM(R9:R11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="20">
-        <f>SUM(S9:S11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:S10 E11:S12" xr:uid="{DF367546-0B27-46FE-92C5-A34CBA13274E}">

--- a/scoring-template.xlsx
+++ b/scoring-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\hollow-knight\hollow-knight-js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B87889-99FE-47E1-9100-C1FB5800BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724D977-87C8-4D36-A5A9-A18F40153C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FAA69DA-CD51-4761-BD0F-66EAA2822B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -777,6 +777,7 @@
     <author>tc={AA75CCD3-8C2A-43CB-AC15-18B07EA9966D}</author>
     <author>TinTin</author>
     <author>tc={BD4AE21C-5745-4F51-9D0F-E7D68617414D}</author>
+    <author>TinTin Winata</author>
   </authors>
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{AA75CCD3-8C2A-43CB-AC15-18B07EA9966D}">
@@ -1178,6 +1179,102 @@
           </rPr>
           <t xml:space="preserve">
 - play boss theme (boss.mp3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="1" shapeId="0" xr:uid="{7178F4B0-0611-482B-917C-27CC267FF23C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TinTin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- player bakal teleport ke boss room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="3" shapeId="0" xr:uid="{E53C3DCA-E273-4E58-99D7-730DE0C2A865}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin Winata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- pastikan memiliki 2 state, pintu terbuka dan tertutup (terbuka saat membunuh lebih dari atau sama dengan 10 musuh)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="3" shapeId="0" xr:uid="{BECA94EB-2C31-4B7D-AF06-55E626C0E1D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin Winata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- terdapat animasi saat membuka pintu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="3" shapeId="0" xr:uid="{0CC9C922-F4D3-41CD-9215-80F02EF0AA93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TinTin Winata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- jika collide dengan pintu yang terbuka muncul text "Space to interact"</t>
         </r>
       </text>
     </comment>
@@ -2819,7 +2916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="187">
   <si>
     <t>Grade</t>
   </si>
@@ -2845,9 +2942,6 @@
     <t>Character</t>
   </si>
   <si>
-    <t>Enemy</t>
-  </si>
-  <si>
     <t>Player Bar &amp; Pause</t>
   </si>
   <si>
@@ -3368,19 +3462,41 @@
   </si>
   <si>
     <t>Camera</t>
+  </si>
+  <si>
+    <t>Boss Door</t>
+  </si>
+  <si>
+    <t>Boss Door State</t>
+  </si>
+  <si>
+    <t>Boss Door Animation</t>
+  </si>
+  <si>
+    <t>Boss Door Text</t>
+  </si>
+  <si>
+    <t>Enemy &amp; Barrel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3646,135 +3762,138 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4237,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01786E0A-BF75-45AD-BAFB-97FFFB484BCE}">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4375,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -4267,7 +4386,7 @@
     </row>
     <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -4287,7 +4406,7 @@
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>1</v>
@@ -4295,29 +4414,29 @@
       <c r="D5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>171</v>
+      <c r="K5" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>2</v>
@@ -4327,14 +4446,14 @@
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,10 +4464,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
         <v>15</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10</v>
       </c>
       <c r="H7" s="14">
         <v>20</v>
@@ -4373,11 +4492,11 @@
       </c>
       <c r="C8" s="11">
         <f>IF(ISBLANK(M8), ROUNDUP(SUM(E8:L8), 0), 0)</f>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="str">
         <f xml:space="preserve"> IF(C8 &gt;= 85, "A", IF(C8&gt;= 75, "B", IF(C8&gt;=65,"C", IF(C8&gt;=55, "D", "E"))))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E8" s="15">
         <f>HLOOKUP(B8,Page!D$8:S$27,20,FALSE) /Page!$C$6 *$E$7</f>
@@ -4385,19 +4504,19 @@
       </c>
       <c r="F8" s="15">
         <f>HLOOKUP(B8,Modal!D$8:S$22,15,FALSE) /Modal!$C$6 *$F$7</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="15">
+        <f>HLOOKUP(B8,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>15</v>
-      </c>
-      <c r="G8" s="15">
-        <f>HLOOKUP(B8,'Game Environment'!D$8:S$36,29,FALSE) /'Game Environment'!$C$6 *$G$7</f>
-        <v>0.26548672566371678</v>
       </c>
       <c r="H8" s="15">
         <f>HLOOKUP(B8,Character!D$8:S$52,45,FALSE) /Character!$C$6 *$H$7</f>
         <v>20</v>
       </c>
       <c r="I8" s="15">
-        <f>HLOOKUP(B8,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
-        <v>0</v>
+        <f>HLOOKUP(B8,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <v>15</v>
       </c>
       <c r="J8" s="15">
         <f>HLOOKUP(B8,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
@@ -4434,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f>HLOOKUP(B9,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B9,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H9" s="15">
@@ -4442,11 +4561,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>HLOOKUP(B9,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B9,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>HLOOKUP(B9,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B9,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K9" s="15">
@@ -4480,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f>HLOOKUP(B10,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B10,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H10" s="15">
@@ -4488,11 +4607,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f>HLOOKUP(B10,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B10,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>HLOOKUP(B10,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B10,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K10" s="15">
@@ -4526,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <f>HLOOKUP(B11,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B11,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H11" s="15">
@@ -4534,11 +4653,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="15">
-        <f>HLOOKUP(B11,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B11,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J11" s="15">
-        <f>HLOOKUP(B11,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B11,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K11" s="15">
@@ -4572,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="15">
-        <f>HLOOKUP(B12,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B12,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H12" s="15">
@@ -4580,11 +4699,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="15">
-        <f>HLOOKUP(B12,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B12,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J12" s="15">
-        <f>HLOOKUP(B12,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B12,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K12" s="15">
@@ -4618,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="15">
-        <f>HLOOKUP(B13,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B13,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H13" s="15">
@@ -4626,11 +4745,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <f>HLOOKUP(B13,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B13,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>HLOOKUP(B13,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B13,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K13" s="15">
@@ -4664,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="15">
-        <f>HLOOKUP(B14,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B14,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H14" s="15">
@@ -4672,11 +4791,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f>HLOOKUP(B14,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B14,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f>HLOOKUP(B14,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B14,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K14" s="15">
@@ -4710,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="15">
-        <f>HLOOKUP(B15,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B15,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H15" s="15">
@@ -4718,11 +4837,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <f>HLOOKUP(B15,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B15,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J15" s="15">
-        <f>HLOOKUP(B15,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B15,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K15" s="15">
@@ -4756,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <f>HLOOKUP(B16,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B16,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H16" s="15">
@@ -4764,11 +4883,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="15">
-        <f>HLOOKUP(B16,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B16,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f>HLOOKUP(B16,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B16,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K16" s="15">
@@ -4802,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <f>HLOOKUP(B17,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B17,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H17" s="15">
@@ -4810,11 +4929,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="15">
-        <f>HLOOKUP(B17,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B17,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>HLOOKUP(B17,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B17,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K17" s="15">
@@ -4848,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15">
-        <f>HLOOKUP(B18,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B18,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H18" s="15">
@@ -4856,11 +4975,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <f>HLOOKUP(B18,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B18,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f>HLOOKUP(B18,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B18,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K18" s="15">
@@ -4894,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15">
-        <f>HLOOKUP(B19,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B19,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H19" s="15">
@@ -4902,11 +5021,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="15">
-        <f>HLOOKUP(B19,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B19,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J19" s="15">
-        <f>HLOOKUP(B19,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B19,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K19" s="15">
@@ -4940,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <f>HLOOKUP(B20,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B20,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H20" s="15">
@@ -4948,11 +5067,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f>HLOOKUP(B20,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B20,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f>HLOOKUP(B20,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B20,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K20" s="15">
@@ -4986,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15">
-        <f>HLOOKUP(B21,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B21,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H21" s="15">
@@ -4994,11 +5113,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="15">
-        <f>HLOOKUP(B21,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B21,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J21" s="15">
-        <f>HLOOKUP(B21,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B21,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K21" s="15">
@@ -5032,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f>HLOOKUP(B22,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B22,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H22" s="15">
@@ -5040,11 +5159,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f>HLOOKUP(B22,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B22,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f>HLOOKUP(B22,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B22,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K22" s="15">
@@ -5078,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <f>HLOOKUP(B23,'Game Environment'!D$8:S$36,25,FALSE) /'Game Environment'!$C$6 *$G$7</f>
+        <f>HLOOKUP(B23,'Game Environment'!D$8:S$41,34,FALSE) /'Game Environment'!$C$6 *$G$7</f>
         <v>0</v>
       </c>
       <c r="H23" s="15">
@@ -5086,11 +5205,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="15">
-        <f>HLOOKUP(B23,'Enemy &amp; Barrel'!D$8:S$56,45,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
+        <f>HLOOKUP(B23,'Enemy &amp; Barrel'!D$8:S$56,49,FALSE) /'Enemy &amp; Barrel'!$C$6 *$I$7</f>
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f>HLOOKUP(B23,'Pause &amp; Player Bar'!D$8:S$27,16,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
+        <f>HLOOKUP(B23,'Pause &amp; Player Bar'!D$8:S$27,20,FALSE) /'Pause &amp; Player Bar'!$C$6 *$J$7</f>
         <v>0</v>
       </c>
       <c r="K23" s="15">
@@ -5113,6 +5232,11 @@
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B7"/>
@@ -5121,11 +5245,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:K23">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -5163,7 +5282,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -5185,7 +5304,7 @@
     </row>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -5213,34 +5332,34 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5411,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="25">
         <v>5</v>
@@ -5318,7 +5437,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="13">
         <v>5</v>
@@ -5345,7 +5464,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -5372,7 +5491,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="13">
         <v>10</v>
@@ -5399,7 +5518,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="13">
         <v>5</v>
@@ -5426,7 +5545,7 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="13">
         <v>5</v>
@@ -5453,7 +5572,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -5480,7 +5599,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13">
         <v>15</v>
@@ -5507,7 +5626,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="13">
         <v>5</v>
@@ -5534,7 +5653,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
@@ -5556,7 +5675,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="13">
         <v>5</v>
@@ -5583,7 +5702,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="13">
         <v>5</v>
@@ -5632,7 +5751,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="13">
         <v>5</v>
@@ -5659,7 +5778,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="13">
         <v>2</v>
@@ -5686,7 +5805,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="13">
         <v>5</v>
@@ -5713,7 +5832,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="13">
         <v>10</v>
@@ -5740,7 +5859,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="13">
         <v>10</v>
@@ -5834,13 +5953,13 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5851,7 +5970,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:S23 E25:S26" xr:uid="{B69FD812-A7D8-4568-987A-B5606766DBEF}">
       <formula1>"0,1,2"</formula1>
@@ -5883,7 +6002,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -5906,7 +6025,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -5993,34 +6112,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -6094,7 +6213,7 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -6120,7 +6239,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13">
         <v>5</v>
@@ -6146,7 +6265,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="13">
         <v>10</v>
@@ -6172,7 +6291,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -6198,7 +6317,7 @@
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6220,7 +6339,7 @@
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -6246,7 +6365,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -6272,7 +6391,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6294,7 +6413,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
@@ -6320,7 +6439,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="13">
         <v>20</v>
@@ -6346,7 +6465,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13">
         <v>20</v>
@@ -6372,7 +6491,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -6468,13 +6587,13 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6485,7 +6604,7 @@
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:S3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:S16 E18:S21 E11:S11 E13:S13" xr:uid="{C2596A1F-DB3A-400C-9850-C11A35C9833C}">
       <formula1>"0,1,2"</formula1>
@@ -6499,10 +6618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C97552-A148-4D56-9BA3-5CE1794ECD23}">
-  <dimension ref="B2:T39"/>
+  <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,7 +6636,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6540,7 +6659,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -6606,8 +6725,8 @@
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="18">
-        <f>SUM(C9:C36)</f>
-        <v>113</v>
+        <f>SUM(C10:C40)</f>
+        <v>100</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -6627,34 +6746,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6825,7 @@
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -6728,7 +6847,7 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13">
         <v>5</v>
@@ -6755,7 +6874,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>5</v>
@@ -6782,7 +6901,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -6804,7 +6923,7 @@
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="13">
         <v>5</v>
@@ -6831,14 +6950,14 @@
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="16">
         <f>C14</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -6858,14 +6977,14 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ref="D15" si="1">C15</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -6885,7 +7004,7 @@
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -6907,14 +7026,14 @@
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="16">
         <f>C17</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -6934,14 +7053,14 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="16">
         <f>C18</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -6961,14 +7080,14 @@
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="16">
         <f>C19</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -6988,14 +7107,14 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="16">
         <f>C20</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -7014,15 +7133,15 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
-        <v>182</v>
+      <c r="B21" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="C21" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="16">
         <f>C21</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7042,7 +7161,7 @@
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -7064,13 +7183,13 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" ref="D23:D39" si="2">C23</f>
+        <f t="shared" ref="D23:D31" si="2">C23</f>
         <v>3</v>
       </c>
       <c r="E23" s="16"/>
@@ -7091,7 +7210,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
@@ -7118,7 +7237,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
@@ -7145,7 +7264,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
@@ -7172,7 +7291,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13">
         <v>3</v>
@@ -7199,14 +7318,14 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -7226,7 +7345,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
@@ -7253,7 +7372,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="13">
         <v>3</v>
@@ -7280,14 +7399,14 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -7307,7 +7426,7 @@
     </row>
     <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -7329,7 +7448,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="13">
         <v>3</v>
@@ -7356,7 +7475,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="13">
         <v>3</v>
@@ -7383,7 +7502,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="13">
         <v>3</v>
@@ -7408,109 +7527,212 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="13">
+    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="16">
-        <f>C36</f>
+      <c r="D37" s="16">
+        <f>C37</f>
         <v>3</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="20">
-        <f>SUM(D11:D36)</f>
-        <v>108</v>
-      </c>
-      <c r="E37" s="20">
-        <f t="shared" ref="D37:S37" si="3">SUM(E11:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3</v>
+      </c>
+      <c r="D38" s="16">
+        <f>C38</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+      <c r="B39" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="13">
+        <v>3</v>
+      </c>
+      <c r="D39" s="16">
+        <f>C39</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="13">
+        <v>3</v>
+      </c>
+      <c r="D40" s="16">
+        <f>C40</f>
+        <v>3</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+    </row>
+    <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="20">
+        <f>SUM(D10:D40)</f>
+        <v>100</v>
+      </c>
+      <c r="E41" s="20">
+        <f>SUM(E15:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="20">
+        <f>SUM(F15:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20">
+        <f>SUM(G15:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="20">
+        <f>SUM(H15:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="20">
+        <f>SUM(I15:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="20">
+        <f>SUM(J15:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f>SUM(K15:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="20">
+        <f>SUM(L15:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f>SUM(M15:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <f>SUM(N15:N36)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="20">
+        <f>SUM(O15:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="20">
+        <f>SUM(P15:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="20">
+        <f>SUM(Q15:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="20">
+        <f>SUM(R15:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="20">
+        <f>SUM(S15:S36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7520,8 +7742,8 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:S7"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E18:S18 E20:S21 E15:S15 E23:S31 E33:S37" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:S11 E18:S18 E20:S21 E15:S15 E23:S31 E33:S35 E37:S41" xr:uid="{313CE7EB-2EA0-43A3-B9EE-3FA24C5E21CF}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7535,7 +7757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87AAC42-D3CB-409A-96C7-2F7D6285C82B}">
   <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B54" sqref="B54:F54"/>
     </sheetView>
   </sheetViews>
@@ -7551,7 +7773,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -7574,7 +7796,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7661,34 +7883,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -7762,7 +7984,7 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13">
         <v>2</v>
@@ -7789,7 +8011,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13">
         <v>2</v>
@@ -7816,7 +8038,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -7843,7 +8065,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
@@ -7870,7 +8092,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
@@ -7897,7 +8119,7 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="13">
         <v>3</v>
@@ -7924,7 +8146,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -7951,7 +8173,7 @@
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -7973,7 +8195,7 @@
     </row>
     <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="13">
         <v>2</v>
@@ -8000,7 +8222,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13">
         <v>2</v>
@@ -8027,7 +8249,7 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
@@ -8054,7 +8276,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13">
         <v>2</v>
@@ -8081,7 +8303,7 @@
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
@@ -8108,7 +8330,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
@@ -8135,7 +8357,7 @@
     </row>
     <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -8157,7 +8379,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="13">
         <v>2</v>
@@ -8184,7 +8406,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="13">
         <v>2</v>
@@ -8211,7 +8433,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="13">
         <v>2</v>
@@ -8238,7 +8460,7 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="13">
         <v>3</v>
@@ -8265,7 +8487,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
@@ -8292,7 +8514,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="13">
         <v>5</v>
@@ -8319,7 +8541,7 @@
     </row>
     <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="21">
         <v>0</v>
@@ -8346,7 +8568,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="13">
         <v>2</v>
@@ -8373,7 +8595,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="13">
         <v>5</v>
@@ -8400,7 +8622,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="13">
         <v>3</v>
@@ -8427,7 +8649,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="13">
         <v>2</v>
@@ -8454,7 +8676,7 @@
     </row>
     <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -8476,7 +8698,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="13">
         <v>2</v>
@@ -8503,7 +8725,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="13">
         <v>2</v>
@@ -8530,7 +8752,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="13">
         <v>2</v>
@@ -8557,7 +8779,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="13">
         <v>5</v>
@@ -8584,7 +8806,7 @@
     </row>
     <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -8606,7 +8828,7 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="13">
         <v>2</v>
@@ -8633,7 +8855,7 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="13">
         <v>5</v>
@@ -8660,7 +8882,7 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="13">
         <v>2</v>
@@ -8687,7 +8909,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="13">
         <v>2</v>
@@ -8714,7 +8936,7 @@
     </row>
     <row r="46" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -8736,7 +8958,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="13">
         <v>2</v>
@@ -8763,7 +8985,7 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="13">
         <v>2</v>
@@ -8790,7 +9012,7 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="13">
         <v>2</v>
@@ -8817,7 +9039,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="13">
         <v>5</v>
@@ -8844,7 +9066,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="13">
         <v>5</v>
@@ -8938,13 +9160,13 @@
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
+      <c r="B54" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8970,8 +9192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250F423-359F-4D10-95FC-95DDE46C12FA}">
   <dimension ref="B2:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8986,7 +9208,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9009,7 +9231,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -9096,34 +9318,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -9175,7 +9397,7 @@
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9197,7 +9419,7 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -9224,7 +9446,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -9251,7 +9473,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="13">
         <v>3</v>
@@ -9278,7 +9500,7 @@
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="13">
         <v>3</v>
@@ -9305,7 +9527,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
@@ -9332,7 +9554,7 @@
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="13">
         <v>4</v>
@@ -9359,7 +9581,7 @@
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -9381,7 +9603,7 @@
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -9408,7 +9630,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="13">
         <v>3</v>
@@ -9435,7 +9657,7 @@
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
@@ -9462,7 +9684,7 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
@@ -9489,7 +9711,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="13">
         <v>3</v>
@@ -9516,7 +9738,7 @@
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
@@ -9543,7 +9765,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
@@ -9570,7 +9792,7 @@
     </row>
     <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -9592,7 +9814,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13">
         <v>2</v>
@@ -9619,7 +9841,7 @@
     </row>
     <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -9641,7 +9863,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="13">
         <v>3</v>
@@ -9668,7 +9890,7 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="13">
         <v>2</v>
@@ -9695,7 +9917,7 @@
     </row>
     <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -9717,7 +9939,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="13">
         <v>3</v>
@@ -9744,7 +9966,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="13">
         <v>2</v>
@@ -9771,7 +9993,7 @@
     </row>
     <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -9793,7 +10015,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="13">
         <v>3</v>
@@ -9820,7 +10042,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="13">
         <v>2</v>
@@ -9847,7 +10069,7 @@
     </row>
     <row r="35" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -9869,7 +10091,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13">
         <v>3</v>
@@ -9896,7 +10118,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="13">
         <v>2</v>
@@ -9923,7 +10145,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="13">
         <v>3</v>
@@ -9950,7 +10172,7 @@
     </row>
     <row r="39" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -9972,7 +10194,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="13">
         <v>3</v>
@@ -9999,7 +10221,7 @@
     </row>
     <row r="41" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -10021,7 +10243,7 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="13">
         <v>2</v>
@@ -10048,7 +10270,7 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="13">
         <v>2</v>
@@ -10075,7 +10297,7 @@
     </row>
     <row r="44" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -10097,7 +10319,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="13">
         <v>2</v>
@@ -10124,7 +10346,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="13">
         <v>2</v>
@@ -10151,7 +10373,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="13">
         <v>2</v>
@@ -10178,7 +10400,7 @@
     </row>
     <row r="48" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -10200,7 +10422,7 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="13">
         <v>3</v>
@@ -10227,7 +10449,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="13">
         <v>5</v>
@@ -10254,7 +10476,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="13">
         <v>2</v>
@@ -10281,7 +10503,7 @@
     </row>
     <row r="52" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -10302,8 +10524,8 @@
       <c r="S52" s="22"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
-        <v>179</v>
+      <c r="B53" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="C53" s="13">
         <v>5</v>
@@ -10329,8 +10551,8 @@
       <c r="S53" s="16"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
-        <v>180</v>
+      <c r="B54" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="C54" s="13">
         <v>3</v>
@@ -10356,8 +10578,8 @@
       <c r="S54" s="16"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
-        <v>181</v>
+      <c r="B55" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="C55" s="13">
         <v>3</v>
@@ -10390,69 +10612,69 @@
         <v>100</v>
       </c>
       <c r="E56" s="20">
-        <f>SUM(E16:E25)</f>
+        <f t="shared" ref="E56:S56" si="3">SUM(E16:E25)</f>
         <v>0</v>
       </c>
       <c r="F56" s="20">
-        <f>SUM(F16:F25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G56" s="20">
-        <f>SUM(G16:G25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="20">
-        <f>SUM(H16:H25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56" s="20">
-        <f>SUM(I16:I25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J56" s="20">
-        <f>SUM(J16:J25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K56" s="20">
-        <f>SUM(K16:K25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L56" s="20">
-        <f>SUM(L16:L25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <f>SUM(M16:M25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N56" s="20">
-        <f>SUM(N16:N25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O56" s="20">
-        <f>SUM(O16:O25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P56" s="20">
-        <f>SUM(P16:P25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q56" s="20">
-        <f>SUM(Q16:Q25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R56" s="20">
-        <f>SUM(R16:R25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S56" s="20">
-        <f>SUM(S16:S25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -10498,7 +10720,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -10521,7 +10743,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -10608,34 +10830,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -10687,7 +10909,7 @@
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -10709,7 +10931,7 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -10736,7 +10958,7 @@
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -10758,7 +10980,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13">
         <v>10</v>
@@ -10785,7 +11007,7 @@
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -10807,7 +11029,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
@@ -10834,7 +11056,7 @@
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -10856,7 +11078,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="13">
         <v>10</v>
@@ -10883,7 +11105,7 @@
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -10905,7 +11127,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -10932,7 +11154,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="13">
         <v>15</v>
@@ -10959,7 +11181,7 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -10981,7 +11203,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -11008,7 +11230,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="13">
         <v>15</v>
@@ -11035,7 +11257,7 @@
     </row>
     <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -11057,7 +11279,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="13">
         <v>10</v>
@@ -11084,7 +11306,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="13">
         <v>15</v>
@@ -11111,7 +11333,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="13">
         <v>15</v>
@@ -11205,13 +11427,13 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="B30" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11237,7 +11459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF588F-F94F-49F5-946C-16DEDC0DBC41}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
@@ -11253,7 +11475,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -11276,7 +11498,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -11363,34 +11585,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -11442,7 +11664,7 @@
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="13">
         <v>20</v>
@@ -11469,7 +11691,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="13">
         <v>20</v>
@@ -11496,7 +11718,7 @@
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
@@ -11523,7 +11745,7 @@
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="13">
         <v>30</v>
@@ -11550,7 +11772,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="13">
         <v>20</v>
@@ -11644,13 +11866,13 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11692,7 +11914,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -11715,7 +11937,7 @@
     </row>
     <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -11802,34 +12024,34 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
@@ -11881,7 +12103,7 @@
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -11908,7 +12130,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13">
         <v>5</v>
@@ -11935,7 +12157,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
@@ -11962,7 +12184,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13">
         <v>10</v>
@@ -11989,7 +12211,7 @@
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="13">
         <v>20</v>
@@ -12016,7 +12238,7 @@
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="13">
         <v>50</v>
@@ -12110,13 +12332,13 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="B19" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
